--- a/JupyterNotebooks/AvgHW/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9991398758812248</v>
+      </c>
+      <c r="D3">
+        <v>0.9952034500988994</v>
+      </c>
+      <c r="E3">
         <v>1.016601303684758</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>0.9938294923089565</v>
+      </c>
+      <c r="G3">
         <v>0.9991398758812248</v>
       </c>
-      <c r="E3">
-        <v>0.9952034500988994</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>1.003927596016589</v>
+      </c>
+      <c r="I3">
+        <v>0.9963258085345702</v>
+      </c>
+      <c r="J3">
         <v>1.016601303684758</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>1.016601303684758</v>
+      </c>
+      <c r="L3">
+        <v>1.001524634718235</v>
+      </c>
+      <c r="M3">
         <v>0.9971756894961423</v>
-      </c>
-      <c r="H3">
-        <v>1.001524634718236</v>
-      </c>
-      <c r="I3">
-        <v>1.016601303684758</v>
-      </c>
-      <c r="J3">
-        <v>0.9991398758812248</v>
-      </c>
-      <c r="K3">
-        <v>0.9938294923089565</v>
-      </c>
-      <c r="L3">
-        <v>1.003927596016589</v>
-      </c>
-      <c r="M3">
-        <v>0.9963258085345702</v>
       </c>
       <c r="N3">
         <v>1.016601303684758</v>
@@ -764,7 +716,7 @@
         <v>1.000465981342422</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9982507827241464</v>
+      </c>
+      <c r="D4">
+        <v>0.9903828024716924</v>
+      </c>
+      <c r="E4">
         <v>1.032175895463767</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>0.9880498339759402</v>
+      </c>
+      <c r="G4">
         <v>0.9982507827241464</v>
       </c>
-      <c r="E4">
-        <v>0.9903828024716924</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>1.007755284883397</v>
+      </c>
+      <c r="I4">
+        <v>0.9929526019331604</v>
+      </c>
+      <c r="J4">
         <v>1.032175895463767</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>1.032175895463767</v>
+      </c>
+      <c r="L4">
+        <v>1.00280249276181</v>
+      </c>
+      <c r="M4">
         <v>0.9946987007488697</v>
-      </c>
-      <c r="H4">
-        <v>1.00280249276181</v>
-      </c>
-      <c r="I4">
-        <v>1.032175895463767</v>
-      </c>
-      <c r="J4">
-        <v>0.9982507827241464</v>
-      </c>
-      <c r="K4">
-        <v>0.9880498339759402</v>
-      </c>
-      <c r="L4">
-        <v>1.007755284883397</v>
-      </c>
-      <c r="M4">
-        <v>0.9929526019331604</v>
       </c>
       <c r="N4">
         <v>1.032175895463767</v>
@@ -835,7 +787,7 @@
         <v>1.000883549370348</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9958365902654681</v>
+      </c>
+      <c r="D5">
+        <v>0.9839268131476625</v>
+      </c>
+      <c r="E5">
         <v>1.059555172074749</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>0.9778177002107044</v>
+      </c>
+      <c r="G5">
         <v>0.9958365902654681</v>
       </c>
-      <c r="E5">
-        <v>0.9839268131476625</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>1.014045166744097</v>
+      </c>
+      <c r="I5">
+        <v>0.9859910980199244</v>
+      </c>
+      <c r="J5">
         <v>1.059555172074749</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>1.059555172074749</v>
+      </c>
+      <c r="L5">
+        <v>1.006176166816644</v>
+      </c>
+      <c r="M5">
         <v>0.989444830030533</v>
-      </c>
-      <c r="H5">
-        <v>1.006176166816644</v>
-      </c>
-      <c r="I5">
-        <v>1.059555172074749</v>
-      </c>
-      <c r="J5">
-        <v>0.9958365902654681</v>
-      </c>
-      <c r="K5">
-        <v>0.9778177002107044</v>
-      </c>
-      <c r="L5">
-        <v>1.014045166744097</v>
-      </c>
-      <c r="M5">
-        <v>0.9859910980199245</v>
       </c>
       <c r="N5">
         <v>1.059555172074749</v>
@@ -906,7 +858,7 @@
         <v>1.001599192163723</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.993014146146607</v>
+      </c>
+      <c r="D6">
+        <v>0.9778213475325859</v>
+      </c>
+      <c r="E6">
         <v>1.086709400789411</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>0.9677744979060663</v>
+      </c>
+      <c r="G6">
         <v>0.993014146146607</v>
       </c>
-      <c r="E6">
-        <v>0.9778213475325859</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>1.020236488528782</v>
+      </c>
+      <c r="I6">
+        <v>0.9793711338363981</v>
+      </c>
+      <c r="J6">
         <v>1.086709400789411</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>1.086709400789411</v>
+      </c>
+      <c r="L6">
+        <v>1.00921850697369</v>
+      </c>
+      <c r="M6">
         <v>0.9846365130973456</v>
-      </c>
-      <c r="H6">
-        <v>1.00921850697369</v>
-      </c>
-      <c r="I6">
-        <v>1.086709400789411</v>
-      </c>
-      <c r="J6">
-        <v>0.993014146146607</v>
-      </c>
-      <c r="K6">
-        <v>0.9677744979060663</v>
-      </c>
-      <c r="L6">
-        <v>1.020236488528782</v>
-      </c>
-      <c r="M6">
-        <v>0.9793711338363981</v>
       </c>
       <c r="N6">
         <v>1.086709400789411</v>
@@ -977,7 +929,7 @@
         <v>1.002347754351361</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,46 +937,46 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995041637217166</v>
+        <v>0.9995874138933507</v>
       </c>
       <c r="D7">
+        <v>1.000922787876316</v>
+      </c>
+      <c r="E7">
+        <v>0.9995041637217169</v>
+      </c>
+      <c r="F7">
+        <v>1.000166534565879</v>
+      </c>
+      <c r="G7">
         <v>0.9995874138933507</v>
       </c>
-      <c r="E7">
-        <v>1.000922787876317</v>
-      </c>
-      <c r="F7">
-        <v>0.9995041637217166</v>
-      </c>
-      <c r="G7">
-        <v>0.9997322525156829</v>
-      </c>
       <c r="H7">
+        <v>0.9997437552833981</v>
+      </c>
+      <c r="I7">
+        <v>0.9996490058697606</v>
+      </c>
+      <c r="J7">
+        <v>0.9995041637217169</v>
+      </c>
+      <c r="K7">
+        <v>0.9995041637217169</v>
+      </c>
+      <c r="L7">
         <v>1.000412491878902</v>
       </c>
-      <c r="I7">
-        <v>0.9995041637217166</v>
-      </c>
-      <c r="J7">
-        <v>0.9995874138933507</v>
-      </c>
-      <c r="K7">
-        <v>1.000166534565879</v>
-      </c>
-      <c r="L7">
-        <v>0.9997437552833986</v>
-      </c>
       <c r="M7">
-        <v>0.9996490058697617</v>
+        <v>0.999732252515683</v>
       </c>
       <c r="N7">
-        <v>0.9995041637217166</v>
+        <v>0.9995041637217169</v>
       </c>
       <c r="O7">
-        <v>1.000922787876317</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="P7">
-        <v>1.000255100884834</v>
+        <v>1.000255100884833</v>
       </c>
       <c r="Q7">
         <v>1.000327520196</v>
@@ -1042,13 +994,13 @@
         <v>0.9999366545017667</v>
       </c>
       <c r="V7">
-        <v>0.9998501563457566</v>
+        <v>0.9998501563457568</v>
       </c>
       <c r="W7">
-        <v>0.999964800700626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999648007006259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,52 +1008,52 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986003812442887</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="D8">
-        <v>0.9997080448341018</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="E8">
-        <v>1.001992011192623</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="F8">
-        <v>0.9986003812442887</v>
+        <v>1.000449505928043</v>
       </c>
       <c r="G8">
-        <v>0.9994357952315782</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="H8">
-        <v>1.000772967430988</v>
+        <v>0.9992542623511845</v>
       </c>
       <c r="I8">
-        <v>0.9986003812442887</v>
+        <v>0.9995394795047361</v>
       </c>
       <c r="J8">
-        <v>0.9997080448341018</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="K8">
-        <v>1.000449505928043</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="L8">
-        <v>0.999254262351184</v>
+        <v>1.000772967430989</v>
       </c>
       <c r="M8">
-        <v>0.9995394795047358</v>
+        <v>0.9994357952315779</v>
       </c>
       <c r="N8">
-        <v>0.9986003812442887</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="O8">
         <v>1.001992011192623</v>
       </c>
       <c r="P8">
-        <v>1.000850028013363</v>
+        <v>1.000850028013362</v>
       </c>
       <c r="Q8">
-        <v>1.000713903212101</v>
+        <v>1.0007139032121</v>
       </c>
       <c r="R8">
-        <v>1.000100145757005</v>
+        <v>1.000100145757004</v>
       </c>
       <c r="S8">
         <v>1.000378617086101</v>
@@ -1110,16 +1062,16 @@
         <v>1.000100145757004</v>
       </c>
       <c r="U8">
-        <v>0.999934058125648</v>
+        <v>0.9999340581256474</v>
       </c>
       <c r="V8">
-        <v>0.9996673227493762</v>
+        <v>0.9996673227493755</v>
       </c>
       <c r="W8">
-        <v>0.9999690559646929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999690559646928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.001058380476491</v>
+      </c>
+      <c r="D9">
+        <v>1.002035713308485</v>
+      </c>
+      <c r="E9">
         <v>0.9978916904206528</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.000595780215876</v>
+      </c>
+      <c r="G9">
         <v>1.001058380476491</v>
       </c>
-      <c r="E9">
-        <v>1.002035713308485</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
+        <v>0.9988436363298488</v>
+      </c>
+      <c r="I9">
+        <v>1.000182163613692</v>
+      </c>
+      <c r="J9">
         <v>0.9978916904206528</v>
       </c>
-      <c r="G9">
+      <c r="K9">
+        <v>0.9978916904206528</v>
+      </c>
+      <c r="L9">
+        <v>1.000546251314144</v>
+      </c>
+      <c r="M9">
         <v>0.9994557019639064</v>
-      </c>
-      <c r="H9">
-        <v>1.000546251314144</v>
-      </c>
-      <c r="I9">
-        <v>0.9978916904206528</v>
-      </c>
-      <c r="J9">
-        <v>1.001058380476491</v>
-      </c>
-      <c r="K9">
-        <v>1.000595780215876</v>
-      </c>
-      <c r="L9">
-        <v>0.9988436363298488</v>
-      </c>
-      <c r="M9">
-        <v>1.000182163613692</v>
       </c>
       <c r="N9">
         <v>0.9978916904206528</v>
@@ -1190,7 +1142,7 @@
         <v>1.000076164705387</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,40 +1150,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9954326985564248</v>
+        <v>1.000883605703395</v>
       </c>
       <c r="D10">
+        <v>1.005245962166785</v>
+      </c>
+      <c r="E10">
+        <v>0.9954326985564245</v>
+      </c>
+      <c r="F10">
+        <v>1.001368271432507</v>
+      </c>
+      <c r="G10">
         <v>1.000883605703395</v>
       </c>
-      <c r="E10">
-        <v>1.005245962166785</v>
-      </c>
-      <c r="F10">
-        <v>0.9954326985564248</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>0.9975531715962095</v>
+      </c>
+      <c r="I10">
+        <v>0.9996069493042005</v>
+      </c>
+      <c r="J10">
+        <v>0.9954326985564245</v>
+      </c>
+      <c r="K10">
+        <v>0.9954326985564245</v>
+      </c>
+      <c r="L10">
+        <v>1.001717896525018</v>
+      </c>
+      <c r="M10">
         <v>0.9985823673048108</v>
       </c>
-      <c r="H10">
-        <v>1.001717896525018</v>
-      </c>
-      <c r="I10">
-        <v>0.9954326985564248</v>
-      </c>
-      <c r="J10">
-        <v>1.000883605703395</v>
-      </c>
-      <c r="K10">
-        <v>1.001368271432507</v>
-      </c>
-      <c r="L10">
-        <v>0.9975531715962095</v>
-      </c>
-      <c r="M10">
-        <v>0.9996069493042005</v>
-      </c>
       <c r="N10">
-        <v>0.9954326985564248</v>
+        <v>0.9954326985564245</v>
       </c>
       <c r="O10">
         <v>1.005245962166785</v>
@@ -1255,13 +1207,13 @@
         <v>1.000036158432854</v>
       </c>
       <c r="V10">
-        <v>0.9991154664575681</v>
+        <v>0.999115466457568</v>
       </c>
       <c r="W10">
         <v>1.000048865323669</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.0051647606829</v>
+      </c>
+      <c r="D11">
+        <v>1.006995995529726</v>
+      </c>
+      <c r="E11">
         <v>0.9922111817729552</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.002077662998428</v>
+      </c>
+      <c r="G11">
         <v>1.0051647606829</v>
       </c>
-      <c r="E11">
-        <v>1.006995995529726</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0.9956405053225729</v>
+      </c>
+      <c r="I11">
+        <v>1.001247402143914</v>
+      </c>
+      <c r="J11">
         <v>0.9922111817729552</v>
       </c>
-      <c r="G11">
-        <v>0.9980706138007441</v>
-      </c>
-      <c r="H11">
+      <c r="K11">
+        <v>0.9922111817729552</v>
+      </c>
+      <c r="L11">
         <v>1.001700324426589</v>
       </c>
-      <c r="I11">
-        <v>0.9922111817729552</v>
-      </c>
-      <c r="J11">
-        <v>1.0051647606829</v>
-      </c>
-      <c r="K11">
-        <v>1.002077662998428</v>
-      </c>
-      <c r="L11">
-        <v>0.9956405053225729</v>
-      </c>
       <c r="M11">
-        <v>1.001247402143914</v>
+        <v>0.9980706138007444</v>
       </c>
       <c r="N11">
         <v>0.9922111817729552</v>
@@ -1332,7 +1284,7 @@
         <v>1.000388555834729</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="D12">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="E12">
         <v>1.012390764726486</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>1.000290037004209</v>
+      </c>
+      <c r="G12">
         <v>0.9318562016855172</v>
       </c>
-      <c r="E12">
-        <v>0.9422085480144057</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="I12">
+        <v>0.9961587042885472</v>
+      </c>
+      <c r="J12">
         <v>1.012390764726486</v>
       </c>
-      <c r="G12">
+      <c r="K12">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="L12">
+        <v>0.9766271425499056</v>
+      </c>
+      <c r="M12">
         <v>1.038317969746038</v>
-      </c>
-      <c r="H12">
-        <v>0.9766271425499056</v>
-      </c>
-      <c r="I12">
-        <v>1.012390764726486</v>
-      </c>
-      <c r="J12">
-        <v>0.9318562016855172</v>
-      </c>
-      <c r="K12">
-        <v>1.000290037004209</v>
-      </c>
-      <c r="L12">
-        <v>1.039747067715987</v>
-      </c>
-      <c r="M12">
-        <v>0.9961587042885472</v>
       </c>
       <c r="N12">
         <v>1.012390764726486</v>
       </c>
       <c r="O12">
-        <v>0.9422085480144057</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="P12">
         <v>0.9370323748499614</v>
       </c>
       <c r="Q12">
-        <v>0.9902632588802218</v>
+        <v>0.9902632588802217</v>
       </c>
       <c r="R12">
         <v>0.9621518381421365</v>
@@ -1403,7 +1355,7 @@
         <v>0.992199554466387</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="D13">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="E13">
         <v>1.02319818206806</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.9904967017439729</v>
+      </c>
+      <c r="G13">
         <v>1.067964252920152</v>
       </c>
-      <c r="E13">
-        <v>1.059548244205389</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
+        <v>0.9601667937851358</v>
+      </c>
+      <c r="I13">
+        <v>0.9938349866230983</v>
+      </c>
+      <c r="J13">
         <v>1.02319818206806</v>
       </c>
-      <c r="G13">
-        <v>0.9480581733904369</v>
-      </c>
-      <c r="H13">
+      <c r="K13">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="L13">
         <v>1.030847741543492</v>
       </c>
-      <c r="I13">
-        <v>1.02319818206806</v>
-      </c>
-      <c r="J13">
-        <v>1.067964252920152</v>
-      </c>
-      <c r="K13">
-        <v>0.9904967017439729</v>
-      </c>
-      <c r="L13">
-        <v>0.9601667937851358</v>
-      </c>
       <c r="M13">
-        <v>0.9938349866230981</v>
+        <v>0.9480581733904366</v>
       </c>
       <c r="N13">
         <v>1.02319818206806</v>
@@ -1462,7 +1414,7 @@
         <v>1.025190223505326</v>
       </c>
       <c r="T13">
-        <v>1.050236893064533</v>
+        <v>1.050236893064534</v>
       </c>
       <c r="U13">
         <v>1.024692213146009</v>
@@ -1474,7 +1426,7 @@
         <v>1.009264384534967</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="D14">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="E14">
         <v>0.2116844377548642</v>
       </c>
-      <c r="D14">
-        <v>2.660839704405877</v>
-      </c>
-      <c r="E14">
-        <v>0.4955235286572381</v>
-      </c>
       <c r="F14">
+        <v>1.211930864539183</v>
+      </c>
+      <c r="G14">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="H14">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="I14">
+        <v>2.011207754433008</v>
+      </c>
+      <c r="J14">
         <v>0.2116844377548642</v>
       </c>
-      <c r="G14">
-        <v>1.295770565751203</v>
-      </c>
-      <c r="H14">
-        <v>0.416158753797579</v>
-      </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.2116844377548642</v>
       </c>
-      <c r="J14">
-        <v>2.660839704405877</v>
-      </c>
-      <c r="K14">
-        <v>1.211930864539183</v>
-      </c>
       <c r="L14">
-        <v>0.6548451648534878</v>
+        <v>0.4161587537975789</v>
       </c>
       <c r="M14">
-        <v>2.011207754433008</v>
+        <v>1.295770565751204</v>
       </c>
       <c r="N14">
         <v>0.2116844377548642</v>
@@ -1524,7 +1476,7 @@
         <v>1.578181616531558</v>
       </c>
       <c r="Q14">
-        <v>0.8956470472042207</v>
+        <v>0.8956470472042208</v>
       </c>
       <c r="R14">
         <v>1.122682556939327</v>
@@ -1539,13 +1491,13 @@
         <v>1.165954559142296</v>
       </c>
       <c r="V14">
-        <v>0.9751005348648094</v>
+        <v>0.9751005348648096</v>
       </c>
       <c r="W14">
         <v>1.119745096774055</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="D15">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="E15">
         <v>0.6337144484550302</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>1.12967782631739</v>
+      </c>
+      <c r="G15">
         <v>1.268221409307049</v>
       </c>
-      <c r="E15">
-        <v>0.9281320838650573</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="I15">
+        <v>1.240079932296729</v>
+      </c>
+      <c r="J15">
         <v>0.6337144484550302</v>
       </c>
-      <c r="G15">
+      <c r="K15">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="L15">
+        <v>0.8472022201645837</v>
+      </c>
+      <c r="M15">
         <v>1.125696974183839</v>
-      </c>
-      <c r="H15">
-        <v>0.8472022201645837</v>
-      </c>
-      <c r="I15">
-        <v>0.6337144484550302</v>
-      </c>
-      <c r="J15">
-        <v>1.268221409307049</v>
-      </c>
-      <c r="K15">
-        <v>1.129677826317389</v>
-      </c>
-      <c r="L15">
-        <v>0.9088917048708907</v>
-      </c>
-      <c r="M15">
-        <v>1.240079932296729</v>
       </c>
       <c r="N15">
         <v>0.6337144484550302</v>
@@ -1616,7 +1568,7 @@
         <v>1.010202074932571</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.997257158773023</v>
+        <v>0.9632946337728273</v>
       </c>
       <c r="D16">
-        <v>0.9980676596505662</v>
+        <v>0.92440126480507</v>
       </c>
       <c r="E16">
-        <v>1.002045145213193</v>
+        <v>1.296729117366934</v>
       </c>
       <c r="F16">
-        <v>0.997257158773023</v>
+        <v>0.8904993945708867</v>
       </c>
       <c r="G16">
-        <v>1.000131605356842</v>
+        <v>0.9632946337728273</v>
       </c>
       <c r="H16">
-        <v>1.000596139215816</v>
+        <v>1.072260243350247</v>
       </c>
       <c r="I16">
-        <v>0.997257158773023</v>
+        <v>0.9227309268456526</v>
       </c>
       <c r="J16">
-        <v>0.9980676596505662</v>
+        <v>1.296729117366934</v>
       </c>
       <c r="K16">
-        <v>1.001016086168099</v>
+        <v>1.296729117366934</v>
       </c>
       <c r="L16">
-        <v>0.999531028975202</v>
+        <v>1.034703766169044</v>
       </c>
       <c r="M16">
-        <v>0.999394070879372</v>
+        <v>0.9468153443677747</v>
       </c>
       <c r="N16">
-        <v>0.997257158773023</v>
+        <v>1.296729117366934</v>
       </c>
       <c r="O16">
-        <v>1.002045145213193</v>
+        <v>0.92440126480507</v>
       </c>
       <c r="P16">
-        <v>1.00005640243188</v>
+        <v>0.9438479492889487</v>
       </c>
       <c r="Q16">
-        <v>1.001088375285017</v>
+        <v>0.9356083045864223</v>
       </c>
       <c r="R16">
-        <v>0.9991233212122608</v>
+        <v>1.061475005314944</v>
       </c>
       <c r="S16">
-        <v>1.000081470073534</v>
+        <v>0.9448370809818907</v>
       </c>
       <c r="T16">
-        <v>0.9991233212122608</v>
+        <v>1.061475005314944</v>
       </c>
       <c r="U16">
-        <v>0.999375392248406</v>
+        <v>1.032810090078152</v>
       </c>
       <c r="V16">
-        <v>0.9989517455533294</v>
+        <v>1.085593895535908</v>
       </c>
       <c r="W16">
-        <v>0.9997548617790143</v>
+        <v>1.006429336406055</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003327437791957</v>
+        <v>0.9408614468960808</v>
       </c>
       <c r="D17">
-        <v>1.001452150176409</v>
+        <v>0.982776977489332</v>
       </c>
       <c r="E17">
-        <v>0.998610900169156</v>
+        <v>1.191713095312371</v>
       </c>
       <c r="F17">
-        <v>1.003327437791957</v>
+        <v>0.9301474456730801</v>
       </c>
       <c r="G17">
-        <v>0.9993671406922416</v>
+        <v>0.9408614468960808</v>
       </c>
       <c r="H17">
-        <v>0.9999092751883347</v>
+        <v>1.045068022698033</v>
       </c>
       <c r="I17">
-        <v>1.003327437791957</v>
+        <v>0.9256050325838704</v>
       </c>
       <c r="J17">
-        <v>1.001452150176409</v>
+        <v>1.191713095312371</v>
       </c>
       <c r="K17">
-        <v>0.9988322288109102</v>
+        <v>1.191713095312371</v>
       </c>
       <c r="L17">
-        <v>1.000389675266121</v>
+        <v>1.042119905059385</v>
       </c>
       <c r="M17">
-        <v>1.00001166163822</v>
+        <v>0.9537782587861708</v>
       </c>
       <c r="N17">
-        <v>1.003327437791957</v>
+        <v>1.191713095312371</v>
       </c>
       <c r="O17">
-        <v>0.998610900169156</v>
+        <v>0.982776977489332</v>
       </c>
       <c r="P17">
-        <v>1.000031525172782</v>
+        <v>0.9618192121927064</v>
       </c>
       <c r="Q17">
-        <v>0.9989890204306988</v>
+        <v>0.9682776181377515</v>
       </c>
       <c r="R17">
-        <v>1.001130162712508</v>
+        <v>1.038450506565928</v>
       </c>
       <c r="S17">
-        <v>0.9998100636792689</v>
+        <v>0.9591388943905278</v>
       </c>
       <c r="T17">
-        <v>1.001130162712508</v>
+        <v>1.038450506565928</v>
       </c>
       <c r="U17">
-        <v>1.000689407207441</v>
+        <v>1.017282444620988</v>
       </c>
       <c r="V17">
-        <v>1.001217013324344</v>
+        <v>1.052168574759265</v>
       </c>
       <c r="W17">
-        <v>1.000237558716669</v>
+        <v>1.00150877306229</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9983095292836703</v>
+        <v>0.8988122501503352</v>
       </c>
       <c r="D18">
-        <v>0.9948034582671573</v>
+        <v>1.097435327764586</v>
       </c>
       <c r="E18">
-        <v>1.00306176593806</v>
+        <v>0.9822882832789708</v>
       </c>
       <c r="F18">
-        <v>0.9983095292836703</v>
+        <v>1.009088304291097</v>
       </c>
       <c r="G18">
-        <v>0.999821667788504</v>
+        <v>0.8988122501503352</v>
       </c>
       <c r="H18">
-        <v>1.001659176893339</v>
+        <v>0.9907761779746848</v>
       </c>
       <c r="I18">
-        <v>0.9983095292836703</v>
+        <v>0.9329078393743084</v>
       </c>
       <c r="J18">
-        <v>0.9948034582671573</v>
+        <v>0.9822882832789708</v>
       </c>
       <c r="K18">
-        <v>1.000569841321703</v>
+        <v>0.9822882832789708</v>
       </c>
       <c r="L18">
-        <v>1.000379657911465</v>
+        <v>1.055790260943102</v>
       </c>
       <c r="M18">
-        <v>0.9974852534553984</v>
+        <v>0.9682072284722215</v>
       </c>
       <c r="N18">
-        <v>0.9983095292836703</v>
+        <v>0.9822882832789708</v>
       </c>
       <c r="O18">
-        <v>1.00306176593806</v>
+        <v>1.097435327764586</v>
       </c>
       <c r="P18">
-        <v>0.9989326121026088</v>
+        <v>0.9981237889574606</v>
       </c>
       <c r="Q18">
-        <v>1.001441716863282</v>
+        <v>1.032821278118404</v>
       </c>
       <c r="R18">
-        <v>0.9987249178296294</v>
+        <v>0.9928452870646307</v>
       </c>
       <c r="S18">
-        <v>0.9992289639979072</v>
+        <v>0.9881516021290476</v>
       </c>
       <c r="T18">
-        <v>0.9987249178296294</v>
+        <v>0.9928452870646307</v>
       </c>
       <c r="U18">
-        <v>0.998999105319348</v>
+        <v>0.9866857724165284</v>
       </c>
       <c r="V18">
-        <v>0.9988611901122125</v>
+        <v>0.9858062745890169</v>
       </c>
       <c r="W18">
-        <v>0.9995112938574122</v>
+        <v>0.9919132090311633</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9890637369396994</v>
+        <v>0.8834048959597858</v>
       </c>
       <c r="D19">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="E19">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="F19">
+        <v>1.015446919400952</v>
+      </c>
+      <c r="G19">
+        <v>0.8834048959597858</v>
+      </c>
+      <c r="H19">
+        <v>0.9795922879532125</v>
+      </c>
+      <c r="I19">
+        <v>0.9183784231497721</v>
+      </c>
+      <c r="J19">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="K19">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="L19">
+        <v>1.073295984656776</v>
+      </c>
+      <c r="M19">
+        <v>0.9559996152951397</v>
+      </c>
+      <c r="N19">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="O19">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="P19">
+        <v>1.009591208889645</v>
+      </c>
+      <c r="Q19">
+        <v>1.045888568557322</v>
+      </c>
+      <c r="R19">
+        <v>0.9942400326481815</v>
+      </c>
+      <c r="S19">
+        <v>0.9917273443581432</v>
+      </c>
+      <c r="T19">
+        <v>0.9942400326481815</v>
+      </c>
+      <c r="U19">
+        <v>0.984679928309921</v>
+      </c>
+      <c r="V19">
+        <v>0.9804514786809877</v>
+      </c>
+      <c r="W19">
+        <v>0.9906791660500496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9980676596505661</v>
+      </c>
+      <c r="D20">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="E20">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="F20">
+        <v>1.0010160861681</v>
+      </c>
+      <c r="G20">
+        <v>0.9980676596505661</v>
+      </c>
+      <c r="H20">
+        <v>0.999531028975202</v>
+      </c>
+      <c r="I20">
+        <v>0.9993940708793717</v>
+      </c>
+      <c r="J20">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="K20">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="L20">
+        <v>1.000596139215816</v>
+      </c>
+      <c r="M20">
+        <v>1.000131605356842</v>
+      </c>
+      <c r="N20">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="O20">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="P20">
+        <v>1.000056402431879</v>
+      </c>
+      <c r="Q20">
+        <v>1.001088375285017</v>
+      </c>
+      <c r="R20">
+        <v>0.9991233212122603</v>
+      </c>
+      <c r="S20">
+        <v>1.000081470073533</v>
+      </c>
+      <c r="T20">
+        <v>0.9991233212122604</v>
+      </c>
+      <c r="U20">
+        <v>0.9993753922484058</v>
+      </c>
+      <c r="V20">
+        <v>0.9989517455533292</v>
+      </c>
+      <c r="W20">
+        <v>0.9997548617790142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.001452150176409</v>
+      </c>
+      <c r="D21">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="E21">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="F21">
+        <v>0.9988322288109102</v>
+      </c>
+      <c r="G21">
+        <v>1.001452150176409</v>
+      </c>
+      <c r="H21">
+        <v>1.000389675266121</v>
+      </c>
+      <c r="I21">
+        <v>1.000011661638221</v>
+      </c>
+      <c r="J21">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="K21">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="L21">
+        <v>0.9999092751883346</v>
+      </c>
+      <c r="M21">
+        <v>0.9993671406922415</v>
+      </c>
+      <c r="N21">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="O21">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="P21">
+        <v>1.000031525172782</v>
+      </c>
+      <c r="Q21">
+        <v>0.9989890204306987</v>
+      </c>
+      <c r="R21">
+        <v>1.001130162712508</v>
+      </c>
+      <c r="S21">
+        <v>0.9998100636792687</v>
+      </c>
+      <c r="T21">
+        <v>1.001130162712508</v>
+      </c>
+      <c r="U21">
+        <v>1.000689407207441</v>
+      </c>
+      <c r="V21">
+        <v>1.001217013324344</v>
+      </c>
+      <c r="W21">
+        <v>1.000237558716669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9948034582671573</v>
+      </c>
+      <c r="D22">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="E22">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="F22">
+        <v>1.000569841321703</v>
+      </c>
+      <c r="G22">
+        <v>0.9948034582671573</v>
+      </c>
+      <c r="H22">
+        <v>1.000379657911465</v>
+      </c>
+      <c r="I22">
+        <v>0.9974852534553984</v>
+      </c>
+      <c r="J22">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="K22">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="L22">
+        <v>1.001659176893339</v>
+      </c>
+      <c r="M22">
+        <v>0.999821667788504</v>
+      </c>
+      <c r="N22">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="O22">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="P22">
+        <v>0.9989326121026088</v>
+      </c>
+      <c r="Q22">
+        <v>1.001441716863282</v>
+      </c>
+      <c r="R22">
+        <v>0.9987249178296297</v>
+      </c>
+      <c r="S22">
+        <v>0.9992289639979072</v>
+      </c>
+      <c r="T22">
+        <v>0.9987249178296297</v>
+      </c>
+      <c r="U22">
+        <v>0.9989991053193482</v>
+      </c>
+      <c r="V22">
+        <v>0.9988611901122129</v>
+      </c>
+      <c r="W22">
+        <v>0.9995112938574124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9818992494382627</v>
       </c>
-      <c r="E19">
+      <c r="D23">
         <v>1.010588409145585</v>
       </c>
-      <c r="F19">
-        <v>0.9890637369396994</v>
-      </c>
-      <c r="G19">
+      <c r="E23">
+        <v>0.9890637369396993</v>
+      </c>
+      <c r="F23">
+        <v>1.003746684616939</v>
+      </c>
+      <c r="G23">
+        <v>0.9818992494382627</v>
+      </c>
+      <c r="H23">
+        <v>1.000643630454949</v>
+      </c>
+      <c r="I23">
+        <v>0.9929082242633261</v>
+      </c>
+      <c r="J23">
+        <v>0.9890637369396993</v>
+      </c>
+      <c r="K23">
+        <v>0.9890637369396993</v>
+      </c>
+      <c r="L23">
+        <v>1.00477199652341</v>
+      </c>
+      <c r="M23">
         <v>1.001005986682207</v>
       </c>
-      <c r="H19">
-        <v>1.00477199652341</v>
-      </c>
-      <c r="I19">
-        <v>0.9890637369396994</v>
-      </c>
-      <c r="J19">
-        <v>0.9818992494382627</v>
-      </c>
-      <c r="K19">
-        <v>1.003746684616939</v>
-      </c>
-      <c r="L19">
-        <v>1.000643630454949</v>
-      </c>
-      <c r="M19">
-        <v>0.9929082242633261</v>
-      </c>
-      <c r="N19">
-        <v>0.9890637369396994</v>
-      </c>
-      <c r="O19">
+      <c r="N23">
+        <v>0.9890637369396993</v>
+      </c>
+      <c r="O23">
         <v>1.010588409145585</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9962438292919236</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.005797197913896</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9938504651745155</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9978312150886848</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9938504651745156</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9956393455514385</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9943242238290907</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9980784897580472</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9991398758812248</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="D3">
-        <v>0.9952034500988994</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="E3">
-        <v>1.016601303684758</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="F3">
-        <v>0.9938294923089565</v>
+        <v>1.006758856707492</v>
       </c>
       <c r="G3">
-        <v>0.9991398758812248</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="H3">
-        <v>1.003927596016589</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="I3">
-        <v>0.9963258085345702</v>
+        <v>0.9185798313976937</v>
       </c>
       <c r="J3">
-        <v>1.016601303684758</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="K3">
-        <v>1.016601303684758</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="L3">
-        <v>1.001524634718235</v>
+        <v>1.067222605230544</v>
       </c>
       <c r="M3">
-        <v>0.9971756894961423</v>
+        <v>0.9600574377305456</v>
       </c>
       <c r="N3">
-        <v>1.016601303684758</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="O3">
-        <v>0.9952034500988994</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="P3">
-        <v>0.9971716629900621</v>
+        <v>0.9971396119553336</v>
       </c>
       <c r="Q3">
-        <v>0.9961895697975209</v>
+        <v>1.036595052157782</v>
       </c>
       <c r="R3">
-        <v>1.003648209888294</v>
+        <v>0.9945858690381856</v>
       </c>
       <c r="S3">
-        <v>0.9971730051587556</v>
+        <v>0.9847788872137376</v>
       </c>
       <c r="T3">
-        <v>1.003648209888294</v>
+        <v>0.9945858690381856</v>
       </c>
       <c r="U3">
-        <v>1.002030079790256</v>
+        <v>0.9859537612112755</v>
       </c>
       <c r="V3">
-        <v>1.004944324569156</v>
+        <v>0.9866586856097982</v>
       </c>
       <c r="W3">
-        <v>1.000465981342422</v>
+        <v>0.9909087599338071</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9982507827241464</v>
+        <v>0.8876250707117065</v>
       </c>
       <c r="D4">
-        <v>0.9903828024716924</v>
+        <v>1.105970072924897</v>
       </c>
       <c r="E4">
-        <v>1.032175895463767</v>
+        <v>0.9860169714893761</v>
       </c>
       <c r="F4">
-        <v>0.9880498339759402</v>
+        <v>1.008041486528139</v>
       </c>
       <c r="G4">
-        <v>0.9982507827241464</v>
+        <v>0.8876250707117065</v>
       </c>
       <c r="H4">
-        <v>1.007755284883397</v>
+        <v>0.9911730038594849</v>
       </c>
       <c r="I4">
-        <v>0.9929526019331604</v>
+        <v>0.9246703641334368</v>
       </c>
       <c r="J4">
-        <v>1.032175895463767</v>
+        <v>0.9860169714893761</v>
       </c>
       <c r="K4">
-        <v>1.032175895463767</v>
+        <v>0.9860169714893761</v>
       </c>
       <c r="L4">
-        <v>1.00280249276181</v>
+        <v>1.062050289369183</v>
       </c>
       <c r="M4">
-        <v>0.9946987007488697</v>
+        <v>0.9640638990952313</v>
       </c>
       <c r="N4">
-        <v>1.032175895463767</v>
+        <v>0.9860169714893761</v>
       </c>
       <c r="O4">
-        <v>0.9903828024716924</v>
+        <v>1.105970072924897</v>
       </c>
       <c r="P4">
-        <v>0.9943167925979194</v>
+        <v>0.9967975718183018</v>
       </c>
       <c r="Q4">
-        <v>0.9925407516102811</v>
+        <v>1.035016986010064</v>
       </c>
       <c r="R4">
-        <v>1.006936493553202</v>
+        <v>0.9932040383753264</v>
       </c>
       <c r="S4">
-        <v>0.9944440953149029</v>
+        <v>0.9858863475772782</v>
       </c>
       <c r="T4">
-        <v>1.006936493553202</v>
+        <v>0.9932040383753264</v>
       </c>
       <c r="U4">
-        <v>1.003877045352119</v>
+        <v>0.9859190035553027</v>
       </c>
       <c r="V4">
-        <v>1.009536815374448</v>
+        <v>0.9859385971421174</v>
       </c>
       <c r="W4">
-        <v>1.000883549370348</v>
+        <v>0.9912013947639318</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9958365902654681</v>
+        <v>0.8699751678652311</v>
       </c>
       <c r="D5">
-        <v>0.9839268131476625</v>
+        <v>1.126946759730458</v>
       </c>
       <c r="E5">
-        <v>1.059555172074749</v>
+        <v>0.9947782629541786</v>
       </c>
       <c r="F5">
-        <v>0.9778177002107044</v>
+        <v>1.00470835439353</v>
       </c>
       <c r="G5">
-        <v>0.9958365902654681</v>
+        <v>0.8699751678652311</v>
       </c>
       <c r="H5">
-        <v>1.014045166744097</v>
+        <v>0.9898695333423179</v>
       </c>
       <c r="I5">
-        <v>0.9859910980199244</v>
+        <v>0.9076983726684635</v>
       </c>
       <c r="J5">
-        <v>1.059555172074749</v>
+        <v>0.9947782629541786</v>
       </c>
       <c r="K5">
-        <v>1.059555172074749</v>
+        <v>0.9947782629541786</v>
       </c>
       <c r="L5">
-        <v>1.006176166816644</v>
+        <v>1.076782443719677</v>
       </c>
       <c r="M5">
-        <v>0.989444830030533</v>
+        <v>0.9525940201347713</v>
       </c>
       <c r="N5">
-        <v>1.059555172074749</v>
+        <v>0.9947782629541786</v>
       </c>
       <c r="O5">
-        <v>0.9839268131476625</v>
+        <v>1.126946759730458</v>
       </c>
       <c r="P5">
-        <v>0.9898817017065653</v>
+        <v>0.9984609637978445</v>
       </c>
       <c r="Q5">
-        <v>0.9866858215890977</v>
+        <v>1.039770389932615</v>
       </c>
       <c r="R5">
-        <v>1.013106191829293</v>
+        <v>0.9972333968499559</v>
       </c>
       <c r="S5">
-        <v>0.9897360778145545</v>
+        <v>0.98317198257682</v>
       </c>
       <c r="T5">
-        <v>1.013106191829293</v>
+        <v>0.9972333968499559</v>
       </c>
       <c r="U5">
-        <v>1.007190851379603</v>
+        <v>0.9860735526711597</v>
       </c>
       <c r="V5">
-        <v>1.017663715518632</v>
+        <v>0.9878144947277635</v>
       </c>
       <c r="W5">
-        <v>1.001599192163723</v>
+        <v>0.9904191143510784</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.993014146146607</v>
+        <v>0.8608906572670455</v>
       </c>
       <c r="D6">
-        <v>0.9778213475325859</v>
+        <v>1.140096513920455</v>
       </c>
       <c r="E6">
-        <v>1.086709400789411</v>
+        <v>0.9982120422159092</v>
       </c>
       <c r="F6">
-        <v>0.9677744979060663</v>
+        <v>1.003252074829546</v>
       </c>
       <c r="G6">
-        <v>0.993014146146607</v>
+        <v>0.8608906572670455</v>
       </c>
       <c r="H6">
-        <v>1.020236488528782</v>
+        <v>0.9883259414204554</v>
       </c>
       <c r="I6">
-        <v>0.9793711338363981</v>
+        <v>0.8983531430681813</v>
       </c>
       <c r="J6">
-        <v>1.086709400789411</v>
+        <v>0.9982120422159092</v>
       </c>
       <c r="K6">
-        <v>1.086709400789411</v>
+        <v>0.9982120422159092</v>
       </c>
       <c r="L6">
-        <v>1.00921850697369</v>
+        <v>1.085395726306819</v>
       </c>
       <c r="M6">
-        <v>0.9846365130973456</v>
+        <v>0.9457982292613635</v>
       </c>
       <c r="N6">
-        <v>1.086709400789411</v>
+        <v>0.9982120422159092</v>
       </c>
       <c r="O6">
-        <v>0.9778213475325859</v>
+        <v>1.140096513920455</v>
       </c>
       <c r="P6">
-        <v>0.9854177468395964</v>
+        <v>1.00049358559375</v>
       </c>
       <c r="Q6">
-        <v>0.9812289303149657</v>
+        <v>1.042947371590909</v>
       </c>
       <c r="R6">
-        <v>1.019181631489535</v>
+        <v>0.9997330711344699</v>
       </c>
       <c r="S6">
-        <v>0.9851573355921794</v>
+        <v>0.9822618001496214</v>
       </c>
       <c r="T6">
-        <v>1.019181631489535</v>
+        <v>0.9997330711344699</v>
       </c>
       <c r="U6">
-        <v>1.010545351891487</v>
+        <v>0.9862493606661933</v>
       </c>
       <c r="V6">
-        <v>1.025778161671072</v>
+        <v>0.9886418969761366</v>
       </c>
       <c r="W6">
-        <v>1.002347754351361</v>
+        <v>0.9900405410362219</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995874138933507</v>
+        <v>1.03670621238145</v>
       </c>
       <c r="D7">
-        <v>1.000922787876316</v>
+        <v>0.8051216750150895</v>
       </c>
       <c r="E7">
-        <v>0.9995041637217169</v>
+        <v>1.435074842746025</v>
       </c>
       <c r="F7">
-        <v>1.000166534565879</v>
+        <v>0.8374196851267006</v>
       </c>
       <c r="G7">
-        <v>0.9995874138933507</v>
+        <v>1.03670621238145</v>
       </c>
       <c r="H7">
-        <v>0.9997437552833981</v>
+        <v>1.111135846653702</v>
       </c>
       <c r="I7">
-        <v>0.9996490058697606</v>
+        <v>0.9503296720222545</v>
       </c>
       <c r="J7">
-        <v>0.9995041637217169</v>
+        <v>1.435074842746025</v>
       </c>
       <c r="K7">
-        <v>0.9995041637217169</v>
+        <v>1.435074842746025</v>
       </c>
       <c r="L7">
-        <v>1.000412491878902</v>
+        <v>0.998862658839942</v>
       </c>
       <c r="M7">
-        <v>0.999732252515683</v>
+        <v>0.9538821967862311</v>
       </c>
       <c r="N7">
-        <v>0.9995041637217169</v>
+        <v>1.435074842746025</v>
       </c>
       <c r="O7">
-        <v>1.000922787876316</v>
+        <v>0.8051216750150895</v>
       </c>
       <c r="P7">
-        <v>1.000255100884833</v>
+        <v>0.9209139436982698</v>
       </c>
       <c r="Q7">
-        <v>1.000327520196</v>
+        <v>0.8795019359006603</v>
       </c>
       <c r="R7">
-        <v>1.000004788497128</v>
+        <v>1.092300910047522</v>
       </c>
       <c r="S7">
-        <v>1.000080818095117</v>
+        <v>0.9319033613942569</v>
       </c>
       <c r="T7">
-        <v>1.000004788497128</v>
+        <v>1.092300910047521</v>
       </c>
       <c r="U7">
-        <v>0.9999366545017667</v>
+        <v>1.057696231732199</v>
       </c>
       <c r="V7">
-        <v>0.9998501563457568</v>
+        <v>1.133171953934964</v>
       </c>
       <c r="W7">
-        <v>0.9999648007006259</v>
+        <v>1.016066598696424</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9997080448341008</v>
+        <v>1.039738524628567</v>
       </c>
       <c r="D8">
-        <v>1.001992011192623</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="E8">
-        <v>0.9986003812442874</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="F8">
-        <v>1.000449505928043</v>
+        <v>0.8392586835029057</v>
       </c>
       <c r="G8">
-        <v>0.9997080448341008</v>
+        <v>1.039738524628567</v>
       </c>
       <c r="H8">
-        <v>0.9992542623511845</v>
+        <v>1.108700854873764</v>
       </c>
       <c r="I8">
-        <v>0.9995394795047361</v>
+        <v>0.9519489806454151</v>
       </c>
       <c r="J8">
-        <v>0.9986003812442874</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="K8">
-        <v>0.9986003812442874</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="L8">
-        <v>1.000772967430989</v>
+        <v>0.9989272406430745</v>
       </c>
       <c r="M8">
-        <v>0.9994357952315779</v>
+        <v>0.9537681537553273</v>
       </c>
       <c r="N8">
-        <v>0.9986003812442874</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="O8">
-        <v>1.001992011192623</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="P8">
-        <v>1.000850028013362</v>
+        <v>0.9239729433464035</v>
       </c>
       <c r="Q8">
-        <v>1.0007139032121</v>
+        <v>0.8809877579097836</v>
       </c>
       <c r="R8">
-        <v>1.000100145757004</v>
+        <v>1.092368297770716</v>
       </c>
       <c r="S8">
-        <v>1.000378617086101</v>
+        <v>0.9339046801493781</v>
       </c>
       <c r="T8">
-        <v>1.000100145757004</v>
+        <v>1.092368297770716</v>
       </c>
       <c r="U8">
-        <v>0.9999340581256474</v>
+        <v>1.057718261766869</v>
       </c>
       <c r="V8">
-        <v>0.9996673227493755</v>
+        <v>1.132006410737364</v>
       </c>
       <c r="W8">
-        <v>0.9999690559646928</v>
+        <v>1.016213600841579</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001058380476491</v>
+        <v>1.039070135926981</v>
       </c>
       <c r="D9">
-        <v>1.002035713308485</v>
+        <v>0.8121790103281253</v>
       </c>
       <c r="E9">
-        <v>0.9978916904206528</v>
+        <v>1.424530960644704</v>
       </c>
       <c r="F9">
-        <v>1.000595780215876</v>
+        <v>0.8408876214144565</v>
       </c>
       <c r="G9">
-        <v>1.001058380476491</v>
+        <v>1.039070135926981</v>
       </c>
       <c r="H9">
-        <v>0.9988436363298488</v>
+        <v>1.106992686876284</v>
       </c>
       <c r="I9">
-        <v>1.000182163613692</v>
+        <v>0.9516362618779268</v>
       </c>
       <c r="J9">
-        <v>0.9978916904206528</v>
+        <v>1.424530960644704</v>
       </c>
       <c r="K9">
-        <v>0.9978916904206528</v>
+        <v>1.424530960644704</v>
       </c>
       <c r="L9">
-        <v>1.000546251314144</v>
+        <v>0.9999784393277121</v>
       </c>
       <c r="M9">
-        <v>0.9994557019639064</v>
+        <v>0.9533107553513122</v>
       </c>
       <c r="N9">
-        <v>0.9978916904206528</v>
+        <v>1.424530960644704</v>
       </c>
       <c r="O9">
-        <v>1.002035713308485</v>
+        <v>0.8121790103281253</v>
       </c>
       <c r="P9">
-        <v>1.001547046892489</v>
+        <v>0.9256245731275532</v>
       </c>
       <c r="Q9">
-        <v>1.000745707636196</v>
+        <v>0.8827448828397187</v>
       </c>
       <c r="R9">
-        <v>1.00032859473521</v>
+        <v>1.091926702299937</v>
       </c>
       <c r="S9">
-        <v>1.000849931916294</v>
+        <v>0.9348533005354729</v>
       </c>
       <c r="T9">
-        <v>1.00032859473521</v>
+        <v>1.091926702299937</v>
       </c>
       <c r="U9">
-        <v>1.000110371542384</v>
+        <v>1.057272715562781</v>
       </c>
       <c r="V9">
-        <v>0.9996666353180379</v>
+        <v>1.130724364579165</v>
       </c>
       <c r="W9">
-        <v>1.000076164705387</v>
+        <v>1.016073233968438</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000883605703395</v>
+        <v>1.063422055851712</v>
       </c>
       <c r="D10">
-        <v>1.005245962166785</v>
+        <v>0.813670548727547</v>
       </c>
       <c r="E10">
-        <v>0.9954326985564245</v>
+        <v>1.404705537895376</v>
       </c>
       <c r="F10">
-        <v>1.001368271432507</v>
+        <v>0.8464440247314335</v>
       </c>
       <c r="G10">
-        <v>1.000883605703395</v>
+        <v>1.063422055851712</v>
       </c>
       <c r="H10">
-        <v>0.9975531715962095</v>
+        <v>1.098308205336999</v>
       </c>
       <c r="I10">
-        <v>0.9996069493042005</v>
+        <v>0.9652536201807835</v>
       </c>
       <c r="J10">
-        <v>0.9954326985564245</v>
+        <v>1.404705537895376</v>
       </c>
       <c r="K10">
-        <v>0.9954326985564245</v>
+        <v>1.404705537895376</v>
       </c>
       <c r="L10">
-        <v>1.001717896525018</v>
+        <v>0.9944263385094442</v>
       </c>
       <c r="M10">
-        <v>0.9985823673048108</v>
+        <v>0.9556092803744997</v>
       </c>
       <c r="N10">
-        <v>0.9954326985564245</v>
+        <v>1.404705537895376</v>
       </c>
       <c r="O10">
-        <v>1.005245962166785</v>
+        <v>0.813670548727547</v>
       </c>
       <c r="P10">
-        <v>1.00306478393509</v>
+        <v>0.9385463022896297</v>
       </c>
       <c r="Q10">
-        <v>1.001914164735798</v>
+        <v>0.8846399145510233</v>
       </c>
       <c r="R10">
-        <v>1.000520755475535</v>
+        <v>1.093932714158212</v>
       </c>
       <c r="S10">
-        <v>1.00157064505833</v>
+        <v>0.944233961651253</v>
       </c>
       <c r="T10">
-        <v>1.000520755475535</v>
+        <v>1.093932714158212</v>
       </c>
       <c r="U10">
-        <v>1.000036158432854</v>
+        <v>1.059351855712284</v>
       </c>
       <c r="V10">
-        <v>0.999115466457568</v>
+        <v>1.128422592148902</v>
       </c>
       <c r="W10">
-        <v>1.000048865323669</v>
+        <v>1.017729951450974</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.0051647606829</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="D11">
-        <v>1.006995995529726</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="E11">
-        <v>0.9922111817729552</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="F11">
-        <v>1.002077662998428</v>
+        <v>0.9927528673195256</v>
       </c>
       <c r="G11">
-        <v>1.0051647606829</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="H11">
-        <v>0.9956405053225729</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="I11">
-        <v>1.001247402143914</v>
+        <v>0.9958089514151341</v>
       </c>
       <c r="J11">
-        <v>0.9922111817729552</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="K11">
-        <v>0.9922111817729552</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="L11">
-        <v>1.001700324426589</v>
+        <v>1.001601026803674</v>
       </c>
       <c r="M11">
-        <v>0.9980706138007444</v>
+        <v>0.9968615645483524</v>
       </c>
       <c r="N11">
-        <v>0.9922111817729552</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="O11">
-        <v>1.006995995529726</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="P11">
-        <v>1.006080378106313</v>
+        <v>0.9964290283180601</v>
       </c>
       <c r="Q11">
-        <v>1.002533304665235</v>
+        <v>0.9953825723506402</v>
       </c>
       <c r="R11">
-        <v>1.00145731266186</v>
+        <v>1.004148963789266</v>
       </c>
       <c r="S11">
-        <v>1.003410456671123</v>
+        <v>0.9965732070614909</v>
       </c>
       <c r="T11">
-        <v>1.00145731266186</v>
+        <v>1.004148963789266</v>
       </c>
       <c r="U11">
-        <v>1.000610637946581</v>
+        <v>1.002327113979038</v>
       </c>
       <c r="V11">
-        <v>0.9989307467118559</v>
+        <v>1.005779458129565</v>
       </c>
       <c r="W11">
-        <v>1.000388555834729</v>
+        <v>1.000528654839366</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9318562016855172</v>
+        <v>1.00068296789223</v>
       </c>
       <c r="D12">
-        <v>0.9422085480144056</v>
+        <v>0.9963765567146228</v>
       </c>
       <c r="E12">
-        <v>1.012390764726486</v>
+        <v>1.009547929279632</v>
       </c>
       <c r="F12">
-        <v>1.000290037004209</v>
+        <v>0.9963778391268382</v>
       </c>
       <c r="G12">
-        <v>0.9318562016855172</v>
+        <v>1.00068296789223</v>
       </c>
       <c r="H12">
-        <v>1.039747067715987</v>
+        <v>1.002279891033233</v>
       </c>
       <c r="I12">
-        <v>0.9961587042885472</v>
+        <v>0.9986054496140961</v>
       </c>
       <c r="J12">
-        <v>1.012390764726486</v>
+        <v>1.009547929279632</v>
       </c>
       <c r="K12">
-        <v>1.012390764726486</v>
+        <v>1.009547929279632</v>
       </c>
       <c r="L12">
-        <v>0.9766271425499056</v>
+        <v>1.000345817221778</v>
       </c>
       <c r="M12">
-        <v>1.038317969746038</v>
+        <v>0.9986692375581135</v>
       </c>
       <c r="N12">
-        <v>1.012390764726486</v>
+        <v>1.009547929279632</v>
       </c>
       <c r="O12">
-        <v>0.9422085480144056</v>
+        <v>0.9963765567146228</v>
       </c>
       <c r="P12">
-        <v>0.9370323748499614</v>
+        <v>0.9985297623034266</v>
       </c>
       <c r="Q12">
-        <v>0.9902632588802217</v>
+        <v>0.9975228971363681</v>
       </c>
       <c r="R12">
-        <v>0.9621518381421365</v>
+        <v>1.002202484628828</v>
       </c>
       <c r="S12">
-        <v>0.9707942398153202</v>
+        <v>0.998576254054989</v>
       </c>
       <c r="T12">
-        <v>0.9621518381421365</v>
+        <v>1.002202484628828</v>
       </c>
       <c r="U12">
-        <v>0.9811933710431118</v>
+        <v>1.00131917286115</v>
       </c>
       <c r="V12">
-        <v>0.9874328497797867</v>
+        <v>1.002964924144846</v>
       </c>
       <c r="W12">
-        <v>0.992199554466387</v>
+        <v>1.000360711055068</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.067964252920152</v>
+        <v>1.010800295415091</v>
       </c>
       <c r="D13">
-        <v>1.059548244205389</v>
+        <v>0.9847337700169437</v>
       </c>
       <c r="E13">
-        <v>1.02319818206806</v>
+        <v>1.028091807041168</v>
       </c>
       <c r="F13">
-        <v>0.9904967017439729</v>
+        <v>0.9888420552836172</v>
       </c>
       <c r="G13">
-        <v>1.067964252920152</v>
+        <v>1.010800295415091</v>
       </c>
       <c r="H13">
-        <v>0.9601667937851358</v>
+        <v>1.006123178922435</v>
       </c>
       <c r="I13">
-        <v>0.9938349866230983</v>
+        <v>1.000685248486809</v>
       </c>
       <c r="J13">
-        <v>1.02319818206806</v>
+        <v>1.028091807041168</v>
       </c>
       <c r="K13">
-        <v>1.02319818206806</v>
+        <v>1.028091807041168</v>
       </c>
       <c r="L13">
-        <v>1.030847741543492</v>
+        <v>0.9979248303947721</v>
       </c>
       <c r="M13">
-        <v>0.9480581733904366</v>
+        <v>0.9973413403678287</v>
       </c>
       <c r="N13">
-        <v>1.02319818206806</v>
+        <v>1.028091807041168</v>
       </c>
       <c r="O13">
-        <v>1.059548244205389</v>
+        <v>0.9847337700169437</v>
       </c>
       <c r="P13">
-        <v>1.063756248562771</v>
+        <v>0.9977670327160175</v>
       </c>
       <c r="Q13">
-        <v>1.003803208797913</v>
+        <v>0.9910375551923862</v>
       </c>
       <c r="R13">
-        <v>1.050236893064534</v>
+        <v>1.007875290824401</v>
       </c>
       <c r="S13">
-        <v>1.025190223505326</v>
+        <v>0.9976251352666212</v>
       </c>
       <c r="T13">
-        <v>1.050236893064534</v>
+        <v>1.007875290824401</v>
       </c>
       <c r="U13">
-        <v>1.024692213146009</v>
+        <v>1.005241803210258</v>
       </c>
       <c r="V13">
-        <v>1.024393406930419</v>
+        <v>1.00981180397644</v>
       </c>
       <c r="W13">
-        <v>1.009264384534967</v>
+        <v>1.001817815741083</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.660839704405878</v>
+        <v>0.9967761585031834</v>
       </c>
       <c r="D14">
-        <v>0.4955235286572381</v>
+        <v>0.9877219603166708</v>
       </c>
       <c r="E14">
-        <v>0.2116844377548642</v>
+        <v>1.044674839957576</v>
       </c>
       <c r="F14">
-        <v>1.211930864539183</v>
+        <v>0.9833964525463025</v>
       </c>
       <c r="G14">
-        <v>2.660839704405878</v>
+        <v>0.9967761585031834</v>
       </c>
       <c r="H14">
-        <v>0.6548451648534876</v>
+        <v>1.010607164423815</v>
       </c>
       <c r="I14">
-        <v>2.011207754433008</v>
+        <v>0.989529158062871</v>
       </c>
       <c r="J14">
-        <v>0.2116844377548642</v>
+        <v>1.044674839957576</v>
       </c>
       <c r="K14">
-        <v>0.2116844377548642</v>
+        <v>1.044674839957576</v>
       </c>
       <c r="L14">
-        <v>0.4161587537975789</v>
+        <v>1.004543995638473</v>
       </c>
       <c r="M14">
-        <v>1.295770565751204</v>
+        <v>0.9921772924018789</v>
       </c>
       <c r="N14">
-        <v>0.2116844377548642</v>
+        <v>1.044674839957576</v>
       </c>
       <c r="O14">
-        <v>0.4955235286572381</v>
+        <v>0.9877219603166708</v>
       </c>
       <c r="P14">
-        <v>1.578181616531558</v>
+        <v>0.9922490594099271</v>
       </c>
       <c r="Q14">
-        <v>0.8956470472042208</v>
+        <v>0.9899496263592749</v>
       </c>
       <c r="R14">
-        <v>1.122682556939327</v>
+        <v>1.009724319592477</v>
       </c>
       <c r="S14">
-        <v>1.484044599604773</v>
+        <v>0.9922251370739111</v>
       </c>
       <c r="T14">
-        <v>1.122682556939327</v>
+        <v>1.009724319592477</v>
       </c>
       <c r="U14">
-        <v>1.165954559142296</v>
+        <v>1.005337562794827</v>
       </c>
       <c r="V14">
-        <v>0.9751005348648096</v>
+        <v>1.013205018227377</v>
       </c>
       <c r="W14">
-        <v>1.119745096774055</v>
+        <v>1.001178377731346</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.268221409307049</v>
+        <v>0.9991398758812248</v>
       </c>
       <c r="D15">
-        <v>0.9281320838650573</v>
+        <v>0.9952034500988994</v>
       </c>
       <c r="E15">
-        <v>0.6337144484550302</v>
+        <v>1.016601303684758</v>
       </c>
       <c r="F15">
-        <v>1.12967782631739</v>
+        <v>0.9938294923089565</v>
       </c>
       <c r="G15">
-        <v>1.268221409307049</v>
+        <v>0.9991398758812248</v>
       </c>
       <c r="H15">
-        <v>0.9088917048708907</v>
+        <v>1.003927596016589</v>
       </c>
       <c r="I15">
-        <v>1.240079932296729</v>
+        <v>0.9963258085345702</v>
       </c>
       <c r="J15">
-        <v>0.6337144484550302</v>
+        <v>1.016601303684758</v>
       </c>
       <c r="K15">
-        <v>0.6337144484550302</v>
+        <v>1.016601303684758</v>
       </c>
       <c r="L15">
-        <v>0.8472022201645837</v>
+        <v>1.001524634718235</v>
       </c>
       <c r="M15">
-        <v>1.125696974183839</v>
+        <v>0.9971756894961423</v>
       </c>
       <c r="N15">
-        <v>0.6337144484550302</v>
+        <v>1.016601303684758</v>
       </c>
       <c r="O15">
-        <v>0.9281320838650573</v>
+        <v>0.9952034500988994</v>
       </c>
       <c r="P15">
-        <v>1.098176746586053</v>
+        <v>0.9971716629900621</v>
       </c>
       <c r="Q15">
-        <v>1.026914529024448</v>
+        <v>0.9961895697975209</v>
       </c>
       <c r="R15">
-        <v>0.9433559805423789</v>
+        <v>1.003648209888294</v>
       </c>
       <c r="S15">
-        <v>1.107350155785315</v>
+        <v>0.9971730051587556</v>
       </c>
       <c r="T15">
-        <v>0.9433559805423789</v>
+        <v>1.003648209888294</v>
       </c>
       <c r="U15">
-        <v>0.9889412289527439</v>
+        <v>1.002030079790256</v>
       </c>
       <c r="V15">
-        <v>0.9178958728532012</v>
+        <v>1.004944324569156</v>
       </c>
       <c r="W15">
-        <v>1.010202074932571</v>
+        <v>1.000465981342422</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9632946337728273</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="D16">
-        <v>0.92440126480507</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="E16">
-        <v>1.296729117366934</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="F16">
-        <v>0.8904993945708867</v>
+        <v>0.9880498339759402</v>
       </c>
       <c r="G16">
-        <v>0.9632946337728273</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="H16">
-        <v>1.072260243350247</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="I16">
-        <v>0.9227309268456526</v>
+        <v>0.9929526019331604</v>
       </c>
       <c r="J16">
-        <v>1.296729117366934</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="K16">
-        <v>1.296729117366934</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="L16">
-        <v>1.034703766169044</v>
+        <v>1.00280249276181</v>
       </c>
       <c r="M16">
-        <v>0.9468153443677747</v>
+        <v>0.9946987007488697</v>
       </c>
       <c r="N16">
-        <v>1.296729117366934</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="O16">
-        <v>0.92440126480507</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="P16">
-        <v>0.9438479492889487</v>
+        <v>0.9943167925979194</v>
       </c>
       <c r="Q16">
-        <v>0.9356083045864223</v>
+        <v>0.9925407516102811</v>
       </c>
       <c r="R16">
-        <v>1.061475005314944</v>
+        <v>1.006936493553202</v>
       </c>
       <c r="S16">
-        <v>0.9448370809818907</v>
+        <v>0.9944440953149029</v>
       </c>
       <c r="T16">
-        <v>1.061475005314944</v>
+        <v>1.006936493553202</v>
       </c>
       <c r="U16">
-        <v>1.032810090078152</v>
+        <v>1.003877045352119</v>
       </c>
       <c r="V16">
-        <v>1.085593895535908</v>
+        <v>1.009536815374448</v>
       </c>
       <c r="W16">
-        <v>1.006429336406055</v>
+        <v>1.000883549370348</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9408614468960808</v>
+        <v>0.9958365902654681</v>
       </c>
       <c r="D17">
-        <v>0.982776977489332</v>
+        <v>0.9839268131476625</v>
       </c>
       <c r="E17">
-        <v>1.191713095312371</v>
+        <v>1.059555172074749</v>
       </c>
       <c r="F17">
-        <v>0.9301474456730801</v>
+        <v>0.9778177002107044</v>
       </c>
       <c r="G17">
-        <v>0.9408614468960808</v>
+        <v>0.9958365902654681</v>
       </c>
       <c r="H17">
-        <v>1.045068022698033</v>
+        <v>1.014045166744097</v>
       </c>
       <c r="I17">
-        <v>0.9256050325838704</v>
+        <v>0.9859910980199244</v>
       </c>
       <c r="J17">
-        <v>1.191713095312371</v>
+        <v>1.059555172074749</v>
       </c>
       <c r="K17">
-        <v>1.191713095312371</v>
+        <v>1.059555172074749</v>
       </c>
       <c r="L17">
-        <v>1.042119905059385</v>
+        <v>1.006176166816644</v>
       </c>
       <c r="M17">
-        <v>0.9537782587861708</v>
+        <v>0.989444830030533</v>
       </c>
       <c r="N17">
-        <v>1.191713095312371</v>
+        <v>1.059555172074749</v>
       </c>
       <c r="O17">
-        <v>0.982776977489332</v>
+        <v>0.9839268131476625</v>
       </c>
       <c r="P17">
-        <v>0.9618192121927064</v>
+        <v>0.9898817017065653</v>
       </c>
       <c r="Q17">
-        <v>0.9682776181377515</v>
+        <v>0.9866858215890977</v>
       </c>
       <c r="R17">
-        <v>1.038450506565928</v>
+        <v>1.013106191829293</v>
       </c>
       <c r="S17">
-        <v>0.9591388943905278</v>
+        <v>0.9897360778145545</v>
       </c>
       <c r="T17">
-        <v>1.038450506565928</v>
+        <v>1.013106191829293</v>
       </c>
       <c r="U17">
-        <v>1.017282444620988</v>
+        <v>1.007190851379603</v>
       </c>
       <c r="V17">
-        <v>1.052168574759265</v>
+        <v>1.017663715518632</v>
       </c>
       <c r="W17">
-        <v>1.00150877306229</v>
+        <v>1.001599192163723</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8988122501503352</v>
+        <v>0.993014146146607</v>
       </c>
       <c r="D18">
-        <v>1.097435327764586</v>
+        <v>0.9778213475325859</v>
       </c>
       <c r="E18">
-        <v>0.9822882832789708</v>
+        <v>1.086709400789411</v>
       </c>
       <c r="F18">
-        <v>1.009088304291097</v>
+        <v>0.9677744979060663</v>
       </c>
       <c r="G18">
-        <v>0.8988122501503352</v>
+        <v>0.993014146146607</v>
       </c>
       <c r="H18">
-        <v>0.9907761779746848</v>
+        <v>1.020236488528782</v>
       </c>
       <c r="I18">
-        <v>0.9329078393743084</v>
+        <v>0.9793711338363981</v>
       </c>
       <c r="J18">
-        <v>0.9822882832789708</v>
+        <v>1.086709400789411</v>
       </c>
       <c r="K18">
-        <v>0.9822882832789708</v>
+        <v>1.086709400789411</v>
       </c>
       <c r="L18">
-        <v>1.055790260943102</v>
+        <v>1.00921850697369</v>
       </c>
       <c r="M18">
-        <v>0.9682072284722215</v>
+        <v>0.9846365130973456</v>
       </c>
       <c r="N18">
-        <v>0.9822882832789708</v>
+        <v>1.086709400789411</v>
       </c>
       <c r="O18">
-        <v>1.097435327764586</v>
+        <v>0.9778213475325859</v>
       </c>
       <c r="P18">
-        <v>0.9981237889574606</v>
+        <v>0.9854177468395964</v>
       </c>
       <c r="Q18">
-        <v>1.032821278118404</v>
+        <v>0.9812289303149657</v>
       </c>
       <c r="R18">
-        <v>0.9928452870646307</v>
+        <v>1.019181631489535</v>
       </c>
       <c r="S18">
-        <v>0.9881516021290476</v>
+        <v>0.9851573355921794</v>
       </c>
       <c r="T18">
-        <v>0.9928452870646307</v>
+        <v>1.019181631489535</v>
       </c>
       <c r="U18">
-        <v>0.9866857724165284</v>
+        <v>1.010545351891487</v>
       </c>
       <c r="V18">
-        <v>0.9858062745890169</v>
+        <v>1.025778161671072</v>
       </c>
       <c r="W18">
-        <v>0.9919132090311633</v>
+        <v>1.002347754351361</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8834048959597858</v>
+        <v>0.9995874138933507</v>
       </c>
       <c r="D19">
-        <v>1.135777521819504</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="E19">
-        <v>0.9635376801652545</v>
+        <v>0.9995041637217169</v>
       </c>
       <c r="F19">
-        <v>1.015446919400952</v>
+        <v>1.000166534565879</v>
       </c>
       <c r="G19">
-        <v>0.8834048959597858</v>
+        <v>0.9995874138933507</v>
       </c>
       <c r="H19">
-        <v>0.9795922879532125</v>
+        <v>0.9997437552833981</v>
       </c>
       <c r="I19">
-        <v>0.9183784231497721</v>
+        <v>0.9996490058697606</v>
       </c>
       <c r="J19">
-        <v>0.9635376801652545</v>
+        <v>0.9995041637217169</v>
       </c>
       <c r="K19">
-        <v>0.9635376801652545</v>
+        <v>0.9995041637217169</v>
       </c>
       <c r="L19">
-        <v>1.073295984656776</v>
+        <v>1.000412491878902</v>
       </c>
       <c r="M19">
-        <v>0.9559996152951397</v>
+        <v>0.999732252515683</v>
       </c>
       <c r="N19">
-        <v>0.9635376801652545</v>
+        <v>0.9995041637217169</v>
       </c>
       <c r="O19">
-        <v>1.135777521819504</v>
+        <v>1.000922787876316</v>
       </c>
       <c r="P19">
-        <v>1.009591208889645</v>
+        <v>1.000255100884833</v>
       </c>
       <c r="Q19">
-        <v>1.045888568557322</v>
+        <v>1.000327520196</v>
       </c>
       <c r="R19">
-        <v>0.9942400326481815</v>
+        <v>1.000004788497128</v>
       </c>
       <c r="S19">
-        <v>0.9917273443581432</v>
+        <v>1.000080818095117</v>
       </c>
       <c r="T19">
-        <v>0.9942400326481815</v>
+        <v>1.000004788497128</v>
       </c>
       <c r="U19">
-        <v>0.984679928309921</v>
+        <v>0.9999366545017667</v>
       </c>
       <c r="V19">
-        <v>0.9804514786809877</v>
+        <v>0.9998501563457568</v>
       </c>
       <c r="W19">
-        <v>0.9906791660500496</v>
+        <v>0.9999648007006259</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9980676596505661</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="D20">
-        <v>1.002045145213192</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="E20">
-        <v>0.9972571587730228</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="F20">
-        <v>1.0010160861681</v>
+        <v>1.000449505928043</v>
       </c>
       <c r="G20">
-        <v>0.9980676596505661</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="H20">
-        <v>0.999531028975202</v>
+        <v>0.9992542623511845</v>
       </c>
       <c r="I20">
-        <v>0.9993940708793717</v>
+        <v>0.9995394795047361</v>
       </c>
       <c r="J20">
-        <v>0.9972571587730228</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="K20">
-        <v>0.9972571587730228</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="L20">
-        <v>1.000596139215816</v>
+        <v>1.000772967430989</v>
       </c>
       <c r="M20">
-        <v>1.000131605356842</v>
+        <v>0.9994357952315779</v>
       </c>
       <c r="N20">
-        <v>0.9972571587730228</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="O20">
-        <v>1.002045145213192</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="P20">
-        <v>1.000056402431879</v>
+        <v>1.000850028013362</v>
       </c>
       <c r="Q20">
-        <v>1.001088375285017</v>
+        <v>1.0007139032121</v>
       </c>
       <c r="R20">
-        <v>0.9991233212122603</v>
+        <v>1.000100145757004</v>
       </c>
       <c r="S20">
-        <v>1.000081470073533</v>
+        <v>1.000378617086101</v>
       </c>
       <c r="T20">
-        <v>0.9991233212122604</v>
+        <v>1.000100145757004</v>
       </c>
       <c r="U20">
-        <v>0.9993753922484058</v>
+        <v>0.9999340581256474</v>
       </c>
       <c r="V20">
-        <v>0.9989517455533292</v>
+        <v>0.9996673227493755</v>
       </c>
       <c r="W20">
-        <v>0.9997548617790142</v>
+        <v>0.9999690559646928</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.001452150176409</v>
+        <v>1.001058380476491</v>
       </c>
       <c r="D21">
-        <v>0.9986109001691559</v>
+        <v>1.002035713308485</v>
       </c>
       <c r="E21">
-        <v>1.003327437791958</v>
+        <v>0.9978916904206528</v>
       </c>
       <c r="F21">
-        <v>0.9988322288109102</v>
+        <v>1.000595780215876</v>
       </c>
       <c r="G21">
-        <v>1.001452150176409</v>
+        <v>1.001058380476491</v>
       </c>
       <c r="H21">
-        <v>1.000389675266121</v>
+        <v>0.9988436363298488</v>
       </c>
       <c r="I21">
-        <v>1.000011661638221</v>
+        <v>1.000182163613692</v>
       </c>
       <c r="J21">
-        <v>1.003327437791958</v>
+        <v>0.9978916904206528</v>
       </c>
       <c r="K21">
-        <v>1.003327437791958</v>
+        <v>0.9978916904206528</v>
       </c>
       <c r="L21">
-        <v>0.9999092751883346</v>
+        <v>1.000546251314144</v>
       </c>
       <c r="M21">
-        <v>0.9993671406922415</v>
+        <v>0.9994557019639064</v>
       </c>
       <c r="N21">
-        <v>1.003327437791958</v>
+        <v>0.9978916904206528</v>
       </c>
       <c r="O21">
-        <v>0.9986109001691559</v>
+        <v>1.002035713308485</v>
       </c>
       <c r="P21">
-        <v>1.000031525172782</v>
+        <v>1.001547046892489</v>
       </c>
       <c r="Q21">
-        <v>0.9989890204306987</v>
+        <v>1.000745707636196</v>
       </c>
       <c r="R21">
-        <v>1.001130162712508</v>
+        <v>1.00032859473521</v>
       </c>
       <c r="S21">
-        <v>0.9998100636792687</v>
+        <v>1.000849931916294</v>
       </c>
       <c r="T21">
-        <v>1.001130162712508</v>
+        <v>1.00032859473521</v>
       </c>
       <c r="U21">
-        <v>1.000689407207441</v>
+        <v>1.000110371542384</v>
       </c>
       <c r="V21">
-        <v>1.001217013324344</v>
+        <v>0.9996666353180379</v>
       </c>
       <c r="W21">
-        <v>1.000237558716669</v>
+        <v>1.000076164705387</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9948034582671573</v>
+        <v>1.000883605703395</v>
       </c>
       <c r="D22">
-        <v>1.00306176593806</v>
+        <v>1.005245962166785</v>
       </c>
       <c r="E22">
-        <v>0.9983095292836712</v>
+        <v>0.9954326985564245</v>
       </c>
       <c r="F22">
-        <v>1.000569841321703</v>
+        <v>1.001368271432507</v>
       </c>
       <c r="G22">
-        <v>0.9948034582671573</v>
+        <v>1.000883605703395</v>
       </c>
       <c r="H22">
-        <v>1.000379657911465</v>
+        <v>0.9975531715962095</v>
       </c>
       <c r="I22">
-        <v>0.9974852534553984</v>
+        <v>0.9996069493042005</v>
       </c>
       <c r="J22">
-        <v>0.9983095292836712</v>
+        <v>0.9954326985564245</v>
       </c>
       <c r="K22">
-        <v>0.9983095292836712</v>
+        <v>0.9954326985564245</v>
       </c>
       <c r="L22">
-        <v>1.001659176893339</v>
+        <v>1.001717896525018</v>
       </c>
       <c r="M22">
-        <v>0.999821667788504</v>
+        <v>0.9985823673048108</v>
       </c>
       <c r="N22">
-        <v>0.9983095292836712</v>
+        <v>0.9954326985564245</v>
       </c>
       <c r="O22">
-        <v>1.00306176593806</v>
+        <v>1.005245962166785</v>
       </c>
       <c r="P22">
-        <v>0.9989326121026088</v>
+        <v>1.00306478393509</v>
       </c>
       <c r="Q22">
-        <v>1.001441716863282</v>
+        <v>1.001914164735798</v>
       </c>
       <c r="R22">
-        <v>0.9987249178296297</v>
+        <v>1.000520755475535</v>
       </c>
       <c r="S22">
-        <v>0.9992289639979072</v>
+        <v>1.00157064505833</v>
       </c>
       <c r="T22">
-        <v>0.9987249178296297</v>
+        <v>1.000520755475535</v>
       </c>
       <c r="U22">
-        <v>0.9989991053193482</v>
+        <v>1.000036158432854</v>
       </c>
       <c r="V22">
-        <v>0.9988611901122129</v>
+        <v>0.999115466457568</v>
       </c>
       <c r="W22">
-        <v>0.9995112938574124</v>
+        <v>1.000048865323669</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.0051647606829</v>
+      </c>
+      <c r="D23">
+        <v>1.006995995529726</v>
+      </c>
+      <c r="E23">
+        <v>0.9922111817729552</v>
+      </c>
+      <c r="F23">
+        <v>1.002077662998428</v>
+      </c>
+      <c r="G23">
+        <v>1.0051647606829</v>
+      </c>
+      <c r="H23">
+        <v>0.9956405053225729</v>
+      </c>
+      <c r="I23">
+        <v>1.001247402143914</v>
+      </c>
+      <c r="J23">
+        <v>0.9922111817729552</v>
+      </c>
+      <c r="K23">
+        <v>0.9922111817729552</v>
+      </c>
+      <c r="L23">
+        <v>1.001700324426589</v>
+      </c>
+      <c r="M23">
+        <v>0.9980706138007444</v>
+      </c>
+      <c r="N23">
+        <v>0.9922111817729552</v>
+      </c>
+      <c r="O23">
+        <v>1.006995995529726</v>
+      </c>
+      <c r="P23">
+        <v>1.006080378106313</v>
+      </c>
+      <c r="Q23">
+        <v>1.002533304665235</v>
+      </c>
+      <c r="R23">
+        <v>1.00145731266186</v>
+      </c>
+      <c r="S23">
+        <v>1.003410456671123</v>
+      </c>
+      <c r="T23">
+        <v>1.00145731266186</v>
+      </c>
+      <c r="U23">
+        <v>1.000610637946581</v>
+      </c>
+      <c r="V23">
+        <v>0.9989307467118559</v>
+      </c>
+      <c r="W23">
+        <v>1.000388555834729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="D24">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="E24">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="F24">
+        <v>1.000290037004209</v>
+      </c>
+      <c r="G24">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="H24">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="I24">
+        <v>0.9961587042885472</v>
+      </c>
+      <c r="J24">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="K24">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="L24">
+        <v>0.9766271425499056</v>
+      </c>
+      <c r="M24">
+        <v>1.038317969746038</v>
+      </c>
+      <c r="N24">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="O24">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="P24">
+        <v>0.9370323748499614</v>
+      </c>
+      <c r="Q24">
+        <v>0.9902632588802217</v>
+      </c>
+      <c r="R24">
+        <v>0.9621518381421365</v>
+      </c>
+      <c r="S24">
+        <v>0.9707942398153202</v>
+      </c>
+      <c r="T24">
+        <v>0.9621518381421365</v>
+      </c>
+      <c r="U24">
+        <v>0.9811933710431118</v>
+      </c>
+      <c r="V24">
+        <v>0.9874328497797867</v>
+      </c>
+      <c r="W24">
+        <v>0.992199554466387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="D25">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="E25">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="F25">
+        <v>0.9904967017439729</v>
+      </c>
+      <c r="G25">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="H25">
+        <v>0.9601667937851358</v>
+      </c>
+      <c r="I25">
+        <v>0.9938349866230983</v>
+      </c>
+      <c r="J25">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="K25">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="L25">
+        <v>1.030847741543492</v>
+      </c>
+      <c r="M25">
+        <v>0.9480581733904366</v>
+      </c>
+      <c r="N25">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="O25">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="P25">
+        <v>1.063756248562771</v>
+      </c>
+      <c r="Q25">
+        <v>1.003803208797913</v>
+      </c>
+      <c r="R25">
+        <v>1.050236893064534</v>
+      </c>
+      <c r="S25">
+        <v>1.025190223505326</v>
+      </c>
+      <c r="T25">
+        <v>1.050236893064534</v>
+      </c>
+      <c r="U25">
+        <v>1.024692213146009</v>
+      </c>
+      <c r="V25">
+        <v>1.024393406930419</v>
+      </c>
+      <c r="W25">
+        <v>1.009264384534967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="D26">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="E26">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="F26">
+        <v>1.211930864539183</v>
+      </c>
+      <c r="G26">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="H26">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="I26">
+        <v>2.011207754433008</v>
+      </c>
+      <c r="J26">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="K26">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="L26">
+        <v>0.4161587537975789</v>
+      </c>
+      <c r="M26">
+        <v>1.295770565751204</v>
+      </c>
+      <c r="N26">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="O26">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="P26">
+        <v>1.578181616531558</v>
+      </c>
+      <c r="Q26">
+        <v>0.8956470472042208</v>
+      </c>
+      <c r="R26">
+        <v>1.122682556939327</v>
+      </c>
+      <c r="S26">
+        <v>1.484044599604773</v>
+      </c>
+      <c r="T26">
+        <v>1.122682556939327</v>
+      </c>
+      <c r="U26">
+        <v>1.165954559142296</v>
+      </c>
+      <c r="V26">
+        <v>0.9751005348648096</v>
+      </c>
+      <c r="W26">
+        <v>1.119745096774055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="D27">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="E27">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="F27">
+        <v>1.12967782631739</v>
+      </c>
+      <c r="G27">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="H27">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="I27">
+        <v>1.240079932296729</v>
+      </c>
+      <c r="J27">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="K27">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="L27">
+        <v>0.8472022201645837</v>
+      </c>
+      <c r="M27">
+        <v>1.125696974183839</v>
+      </c>
+      <c r="N27">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="O27">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="P27">
+        <v>1.098176746586053</v>
+      </c>
+      <c r="Q27">
+        <v>1.026914529024448</v>
+      </c>
+      <c r="R27">
+        <v>0.9433559805423789</v>
+      </c>
+      <c r="S27">
+        <v>1.107350155785315</v>
+      </c>
+      <c r="T27">
+        <v>0.9433559805423789</v>
+      </c>
+      <c r="U27">
+        <v>0.9889412289527439</v>
+      </c>
+      <c r="V27">
+        <v>0.9178958728532012</v>
+      </c>
+      <c r="W27">
+        <v>1.010202074932571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9632946337728273</v>
+      </c>
+      <c r="D28">
+        <v>0.92440126480507</v>
+      </c>
+      <c r="E28">
+        <v>1.296729117366934</v>
+      </c>
+      <c r="F28">
+        <v>0.8904993945708867</v>
+      </c>
+      <c r="G28">
+        <v>0.9632946337728273</v>
+      </c>
+      <c r="H28">
+        <v>1.072260243350247</v>
+      </c>
+      <c r="I28">
+        <v>0.9227309268456526</v>
+      </c>
+      <c r="J28">
+        <v>1.296729117366934</v>
+      </c>
+      <c r="K28">
+        <v>1.296729117366934</v>
+      </c>
+      <c r="L28">
+        <v>1.034703766169044</v>
+      </c>
+      <c r="M28">
+        <v>0.9468153443677747</v>
+      </c>
+      <c r="N28">
+        <v>1.296729117366934</v>
+      </c>
+      <c r="O28">
+        <v>0.92440126480507</v>
+      </c>
+      <c r="P28">
+        <v>0.9438479492889487</v>
+      </c>
+      <c r="Q28">
+        <v>0.9356083045864223</v>
+      </c>
+      <c r="R28">
+        <v>1.061475005314944</v>
+      </c>
+      <c r="S28">
+        <v>0.9448370809818907</v>
+      </c>
+      <c r="T28">
+        <v>1.061475005314944</v>
+      </c>
+      <c r="U28">
+        <v>1.032810090078152</v>
+      </c>
+      <c r="V28">
+        <v>1.085593895535908</v>
+      </c>
+      <c r="W28">
+        <v>1.006429336406055</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9408614468960808</v>
+      </c>
+      <c r="D29">
+        <v>0.982776977489332</v>
+      </c>
+      <c r="E29">
+        <v>1.191713095312371</v>
+      </c>
+      <c r="F29">
+        <v>0.9301474456730801</v>
+      </c>
+      <c r="G29">
+        <v>0.9408614468960808</v>
+      </c>
+      <c r="H29">
+        <v>1.045068022698033</v>
+      </c>
+      <c r="I29">
+        <v>0.9256050325838704</v>
+      </c>
+      <c r="J29">
+        <v>1.191713095312371</v>
+      </c>
+      <c r="K29">
+        <v>1.191713095312371</v>
+      </c>
+      <c r="L29">
+        <v>1.042119905059385</v>
+      </c>
+      <c r="M29">
+        <v>0.9537782587861708</v>
+      </c>
+      <c r="N29">
+        <v>1.191713095312371</v>
+      </c>
+      <c r="O29">
+        <v>0.982776977489332</v>
+      </c>
+      <c r="P29">
+        <v>0.9618192121927064</v>
+      </c>
+      <c r="Q29">
+        <v>0.9682776181377515</v>
+      </c>
+      <c r="R29">
+        <v>1.038450506565928</v>
+      </c>
+      <c r="S29">
+        <v>0.9591388943905278</v>
+      </c>
+      <c r="T29">
+        <v>1.038450506565928</v>
+      </c>
+      <c r="U29">
+        <v>1.017282444620988</v>
+      </c>
+      <c r="V29">
+        <v>1.052168574759265</v>
+      </c>
+      <c r="W29">
+        <v>1.00150877306229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8988122501503352</v>
+      </c>
+      <c r="D30">
+        <v>1.097435327764586</v>
+      </c>
+      <c r="E30">
+        <v>0.9822882832789708</v>
+      </c>
+      <c r="F30">
+        <v>1.009088304291097</v>
+      </c>
+      <c r="G30">
+        <v>0.8988122501503352</v>
+      </c>
+      <c r="H30">
+        <v>0.9907761779746848</v>
+      </c>
+      <c r="I30">
+        <v>0.9329078393743084</v>
+      </c>
+      <c r="J30">
+        <v>0.9822882832789708</v>
+      </c>
+      <c r="K30">
+        <v>0.9822882832789708</v>
+      </c>
+      <c r="L30">
+        <v>1.055790260943102</v>
+      </c>
+      <c r="M30">
+        <v>0.9682072284722215</v>
+      </c>
+      <c r="N30">
+        <v>0.9822882832789708</v>
+      </c>
+      <c r="O30">
+        <v>1.097435327764586</v>
+      </c>
+      <c r="P30">
+        <v>0.9981237889574606</v>
+      </c>
+      <c r="Q30">
+        <v>1.032821278118404</v>
+      </c>
+      <c r="R30">
+        <v>0.9928452870646307</v>
+      </c>
+      <c r="S30">
+        <v>0.9881516021290476</v>
+      </c>
+      <c r="T30">
+        <v>0.9928452870646307</v>
+      </c>
+      <c r="U30">
+        <v>0.9866857724165284</v>
+      </c>
+      <c r="V30">
+        <v>0.9858062745890169</v>
+      </c>
+      <c r="W30">
+        <v>0.9919132090311633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8834048959597858</v>
+      </c>
+      <c r="D31">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="E31">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="F31">
+        <v>1.015446919400952</v>
+      </c>
+      <c r="G31">
+        <v>0.8834048959597858</v>
+      </c>
+      <c r="H31">
+        <v>0.9795922879532125</v>
+      </c>
+      <c r="I31">
+        <v>0.9183784231497721</v>
+      </c>
+      <c r="J31">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="K31">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="L31">
+        <v>1.073295984656776</v>
+      </c>
+      <c r="M31">
+        <v>0.9559996152951397</v>
+      </c>
+      <c r="N31">
+        <v>0.9635376801652545</v>
+      </c>
+      <c r="O31">
+        <v>1.135777521819504</v>
+      </c>
+      <c r="P31">
+        <v>1.009591208889645</v>
+      </c>
+      <c r="Q31">
+        <v>1.045888568557322</v>
+      </c>
+      <c r="R31">
+        <v>0.9942400326481815</v>
+      </c>
+      <c r="S31">
+        <v>0.9917273443581432</v>
+      </c>
+      <c r="T31">
+        <v>0.9942400326481815</v>
+      </c>
+      <c r="U31">
+        <v>0.984679928309921</v>
+      </c>
+      <c r="V31">
+        <v>0.9804514786809877</v>
+      </c>
+      <c r="W31">
+        <v>0.9906791660500496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.026363887013699</v>
+      </c>
+      <c r="D32">
+        <v>0.8575404645205478</v>
+      </c>
+      <c r="E32">
+        <v>1.382853073068493</v>
+      </c>
+      <c r="F32">
+        <v>0.8551725619178085</v>
+      </c>
+      <c r="G32">
+        <v>1.026363887013699</v>
+      </c>
+      <c r="H32">
+        <v>1.090327362602739</v>
+      </c>
+      <c r="I32">
+        <v>0.9423578736986303</v>
+      </c>
+      <c r="J32">
+        <v>1.382853073068493</v>
+      </c>
+      <c r="K32">
+        <v>1.382853073068493</v>
+      </c>
+      <c r="L32">
+        <v>1.015634671095891</v>
+      </c>
+      <c r="M32">
+        <v>0.9447323427397262</v>
+      </c>
+      <c r="N32">
+        <v>1.382853073068493</v>
+      </c>
+      <c r="O32">
+        <v>0.8575404645205478</v>
+      </c>
+      <c r="P32">
+        <v>0.9419521757671232</v>
+      </c>
+      <c r="Q32">
+        <v>0.901136403630137</v>
+      </c>
+      <c r="R32">
+        <v>1.088919141534247</v>
+      </c>
+      <c r="S32">
+        <v>0.9428788980913242</v>
+      </c>
+      <c r="T32">
+        <v>1.088919141534247</v>
+      </c>
+      <c r="U32">
+        <v>1.052872441835617</v>
+      </c>
+      <c r="V32">
+        <v>1.118868568082192</v>
+      </c>
+      <c r="W32">
+        <v>1.014372779582192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.772162625263158</v>
+      </c>
+      <c r="D33">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="E33">
+        <v>0.3509733176842105</v>
+      </c>
+      <c r="F33">
+        <v>1.206249889473684</v>
+      </c>
+      <c r="G33">
+        <v>1.772162625263158</v>
+      </c>
+      <c r="H33">
+        <v>0.7061252994736843</v>
+      </c>
+      <c r="I33">
+        <v>1.454438172631579</v>
+      </c>
+      <c r="J33">
+        <v>0.3509733176842105</v>
+      </c>
+      <c r="K33">
+        <v>0.3509733176842105</v>
+      </c>
+      <c r="L33">
+        <v>0.8012957152631578</v>
+      </c>
+      <c r="M33">
+        <v>1.083480193684211</v>
+      </c>
+      <c r="N33">
+        <v>0.3509733176842105</v>
+      </c>
+      <c r="O33">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="P33">
+        <v>1.405231170263158</v>
+      </c>
+      <c r="Q33">
+        <v>1.060889954473684</v>
+      </c>
+      <c r="R33">
+        <v>1.053811886070176</v>
+      </c>
+      <c r="S33">
+        <v>1.297980844736842</v>
+      </c>
+      <c r="T33">
+        <v>1.053811886070176</v>
+      </c>
+      <c r="U33">
+        <v>1.061228962973684</v>
+      </c>
+      <c r="V33">
+        <v>0.9191778339157896</v>
+      </c>
+      <c r="W33">
+        <v>1.051628116092105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="D34">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="E34">
+        <v>1.346592761</v>
+      </c>
+      <c r="F34">
+        <v>0.8664737015789473</v>
+      </c>
+      <c r="G34">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="H34">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="I34">
+        <v>0.9508710757894736</v>
+      </c>
+      <c r="J34">
+        <v>1.346592761</v>
+      </c>
+      <c r="K34">
+        <v>1.346592761</v>
+      </c>
+      <c r="L34">
+        <v>1.017354989473684</v>
+      </c>
+      <c r="M34">
+        <v>0.9430205073684212</v>
+      </c>
+      <c r="N34">
+        <v>1.346592761</v>
+      </c>
+      <c r="O34">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="P34">
+        <v>0.9610771794210525</v>
+      </c>
+      <c r="Q34">
+        <v>0.9108661515789473</v>
+      </c>
+      <c r="R34">
+        <v>1.089582373280702</v>
+      </c>
+      <c r="S34">
+        <v>0.9550582887368421</v>
+      </c>
+      <c r="T34">
+        <v>1.089582373280702</v>
+      </c>
+      <c r="U34">
+        <v>1.052941906802632</v>
+      </c>
+      <c r="V34">
+        <v>1.111672077642105</v>
+      </c>
+      <c r="W34">
+        <v>1.015184976625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5568387782921786</v>
+      </c>
+      <c r="D35">
+        <v>1.540006885227403</v>
+      </c>
+      <c r="E35">
+        <v>0.8255844820917588</v>
+      </c>
+      <c r="F35">
+        <v>1.07163952078914</v>
+      </c>
+      <c r="G35">
+        <v>0.5568387782921786</v>
+      </c>
+      <c r="H35">
+        <v>0.9101208367629778</v>
+      </c>
+      <c r="I35">
+        <v>0.6942951229570927</v>
+      </c>
+      <c r="J35">
+        <v>0.8255844820917588</v>
+      </c>
+      <c r="K35">
+        <v>0.8255844820917588</v>
+      </c>
+      <c r="L35">
+        <v>1.28022749561502</v>
+      </c>
+      <c r="M35">
+        <v>0.834613463204528</v>
+      </c>
+      <c r="N35">
+        <v>0.8255844820917588</v>
+      </c>
+      <c r="O35">
+        <v>1.540006885227403</v>
+      </c>
+      <c r="P35">
+        <v>1.048422831759791</v>
+      </c>
+      <c r="Q35">
+        <v>1.187310174215966</v>
+      </c>
+      <c r="R35">
+        <v>0.9741433818704467</v>
+      </c>
+      <c r="S35">
+        <v>0.9771530422413699</v>
+      </c>
+      <c r="T35">
+        <v>0.9741433818704467</v>
+      </c>
+      <c r="U35">
+        <v>0.9392609022039671</v>
+      </c>
+      <c r="V35">
+        <v>0.9165256181815253</v>
+      </c>
+      <c r="W35">
+        <v>0.9641658231175123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9980676596505661</v>
+      </c>
+      <c r="D36">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="E36">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="F36">
+        <v>1.0010160861681</v>
+      </c>
+      <c r="G36">
+        <v>0.9980676596505661</v>
+      </c>
+      <c r="H36">
+        <v>0.999531028975202</v>
+      </c>
+      <c r="I36">
+        <v>0.9993940708793717</v>
+      </c>
+      <c r="J36">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="K36">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="L36">
+        <v>1.000596139215816</v>
+      </c>
+      <c r="M36">
+        <v>1.000131605356842</v>
+      </c>
+      <c r="N36">
+        <v>0.9972571587730228</v>
+      </c>
+      <c r="O36">
+        <v>1.002045145213192</v>
+      </c>
+      <c r="P36">
+        <v>1.000056402431879</v>
+      </c>
+      <c r="Q36">
+        <v>1.001088375285017</v>
+      </c>
+      <c r="R36">
+        <v>0.9991233212122603</v>
+      </c>
+      <c r="S36">
+        <v>1.000081470073533</v>
+      </c>
+      <c r="T36">
+        <v>0.9991233212122604</v>
+      </c>
+      <c r="U36">
+        <v>0.9993753922484058</v>
+      </c>
+      <c r="V36">
+        <v>0.9989517455533292</v>
+      </c>
+      <c r="W36">
+        <v>0.9997548617790142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.001452150176409</v>
+      </c>
+      <c r="D37">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="E37">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="F37">
+        <v>0.9988322288109102</v>
+      </c>
+      <c r="G37">
+        <v>1.001452150176409</v>
+      </c>
+      <c r="H37">
+        <v>1.000389675266121</v>
+      </c>
+      <c r="I37">
+        <v>1.000011661638221</v>
+      </c>
+      <c r="J37">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="K37">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="L37">
+        <v>0.9999092751883346</v>
+      </c>
+      <c r="M37">
+        <v>0.9993671406922415</v>
+      </c>
+      <c r="N37">
+        <v>1.003327437791958</v>
+      </c>
+      <c r="O37">
+        <v>0.9986109001691559</v>
+      </c>
+      <c r="P37">
+        <v>1.000031525172782</v>
+      </c>
+      <c r="Q37">
+        <v>0.9989890204306987</v>
+      </c>
+      <c r="R37">
+        <v>1.001130162712508</v>
+      </c>
+      <c r="S37">
+        <v>0.9998100636792687</v>
+      </c>
+      <c r="T37">
+        <v>1.001130162712508</v>
+      </c>
+      <c r="U37">
+        <v>1.000689407207441</v>
+      </c>
+      <c r="V37">
+        <v>1.001217013324344</v>
+      </c>
+      <c r="W37">
+        <v>1.000237558716669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9948034582671573</v>
+      </c>
+      <c r="D38">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="E38">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="F38">
+        <v>1.000569841321703</v>
+      </c>
+      <c r="G38">
+        <v>0.9948034582671573</v>
+      </c>
+      <c r="H38">
+        <v>1.000379657911465</v>
+      </c>
+      <c r="I38">
+        <v>0.9974852534553984</v>
+      </c>
+      <c r="J38">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="K38">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="L38">
+        <v>1.001659176893339</v>
+      </c>
+      <c r="M38">
+        <v>0.999821667788504</v>
+      </c>
+      <c r="N38">
+        <v>0.9983095292836712</v>
+      </c>
+      <c r="O38">
+        <v>1.00306176593806</v>
+      </c>
+      <c r="P38">
+        <v>0.9989326121026088</v>
+      </c>
+      <c r="Q38">
+        <v>1.001441716863282</v>
+      </c>
+      <c r="R38">
+        <v>0.9987249178296297</v>
+      </c>
+      <c r="S38">
+        <v>0.9992289639979072</v>
+      </c>
+      <c r="T38">
+        <v>0.9987249178296297</v>
+      </c>
+      <c r="U38">
+        <v>0.9989991053193482</v>
+      </c>
+      <c r="V38">
+        <v>0.9988611901122129</v>
+      </c>
+      <c r="W38">
+        <v>0.9995112938574124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9818992494382627</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.010588409145585</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9890637369396993</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.003746684616939</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9818992494382627</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000643630454949</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9929082242633261</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9890637369396993</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9890637369396993</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00477199652341</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.001005986682207</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9890637369396993</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.010588409145585</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9962438292919236</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.005797197913896</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9938504651745155</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9978312150886848</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9938504651745156</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9956393455514385</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9943242238290907</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9980784897580472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.924062773818321</v>
+      </c>
+      <c r="D40">
+        <v>1.088274537966942</v>
+      </c>
+      <c r="E40">
+        <v>0.9678742782455937</v>
+      </c>
+      <c r="F40">
+        <v>1.013685251028603</v>
+      </c>
+      <c r="G40">
+        <v>0.924062773818321</v>
+      </c>
+      <c r="H40">
+        <v>0.9854472633540525</v>
+      </c>
+      <c r="I40">
+        <v>0.9496807018873911</v>
+      </c>
+      <c r="J40">
+        <v>0.9678742782455937</v>
+      </c>
+      <c r="K40">
+        <v>0.9678742782455937</v>
+      </c>
+      <c r="L40">
+        <v>1.045389150418813</v>
+      </c>
+      <c r="M40">
+        <v>0.9741772705849914</v>
+      </c>
+      <c r="N40">
+        <v>0.9678742782455937</v>
+      </c>
+      <c r="O40">
+        <v>1.088274537966942</v>
+      </c>
+      <c r="P40">
+        <v>1.006168655892631</v>
+      </c>
+      <c r="Q40">
+        <v>1.031225904275967</v>
+      </c>
+      <c r="R40">
+        <v>0.9934038633436187</v>
+      </c>
+      <c r="S40">
+        <v>0.9955048607900846</v>
+      </c>
+      <c r="T40">
+        <v>0.9934038633436187</v>
+      </c>
+      <c r="U40">
+        <v>0.9885972151539619</v>
+      </c>
+      <c r="V40">
+        <v>0.9844526277722883</v>
+      </c>
+      <c r="W40">
+        <v>0.9935739034130884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.7430809549299546</v>
+      </c>
+      <c r="D41">
+        <v>1.066024137937027</v>
+      </c>
+      <c r="E41">
+        <v>1.162858102814927</v>
+      </c>
+      <c r="F41">
+        <v>0.95183698134393</v>
+      </c>
+      <c r="G41">
+        <v>0.7430809549299546</v>
+      </c>
+      <c r="H41">
+        <v>1.062619395112393</v>
+      </c>
+      <c r="I41">
+        <v>0.8349032375142709</v>
+      </c>
+      <c r="J41">
+        <v>1.162858102814927</v>
+      </c>
+      <c r="K41">
+        <v>1.162858102814927</v>
+      </c>
+      <c r="L41">
+        <v>1.094185793838699</v>
+      </c>
+      <c r="M41">
+        <v>0.9466905611687934</v>
+      </c>
+      <c r="N41">
+        <v>1.162858102814927</v>
+      </c>
+      <c r="O41">
+        <v>1.066024137937027</v>
+      </c>
+      <c r="P41">
+        <v>0.904552546433491</v>
+      </c>
+      <c r="Q41">
+        <v>1.00635734955291</v>
+      </c>
+      <c r="R41">
+        <v>0.9906543985606362</v>
+      </c>
+      <c r="S41">
+        <v>0.9185985513452585</v>
+      </c>
+      <c r="T41">
+        <v>0.9906543985606362</v>
+      </c>
+      <c r="U41">
+        <v>0.9796634392126755</v>
+      </c>
+      <c r="V41">
+        <v>1.016302371933126</v>
+      </c>
+      <c r="W41">
+        <v>0.9827748955824993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.6822941804504921</v>
+      </c>
+      <c r="D42">
+        <v>1.102020361869034</v>
+      </c>
+      <c r="E42">
+        <v>1.247461525912963</v>
+      </c>
+      <c r="F42">
+        <v>0.9204275599149953</v>
+      </c>
+      <c r="G42">
+        <v>0.6822941804504921</v>
+      </c>
+      <c r="H42">
+        <v>1.076698429804951</v>
+      </c>
+      <c r="I42">
+        <v>0.7723069730532989</v>
+      </c>
+      <c r="J42">
+        <v>1.247461525912963</v>
+      </c>
+      <c r="K42">
+        <v>1.247461525912963</v>
+      </c>
+      <c r="L42">
+        <v>1.140585852302483</v>
+      </c>
+      <c r="M42">
+        <v>0.906823603165458</v>
+      </c>
+      <c r="N42">
+        <v>1.247461525912963</v>
+      </c>
+      <c r="O42">
+        <v>1.102020361869034</v>
+      </c>
+      <c r="P42">
+        <v>0.8921572711597632</v>
+      </c>
+      <c r="Q42">
+        <v>1.004421982517246</v>
+      </c>
+      <c r="R42">
+        <v>1.010592022744163</v>
+      </c>
+      <c r="S42">
+        <v>0.8970460484949948</v>
+      </c>
+      <c r="T42">
+        <v>1.010592022744163</v>
+      </c>
+      <c r="U42">
+        <v>0.9846499178494867</v>
+      </c>
+      <c r="V42">
+        <v>1.037212239462182</v>
+      </c>
+      <c r="W42">
+        <v>0.9810773108092095</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.016601303684758</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="D3">
-        <v>0.9991398758812248</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="E3">
-        <v>0.9952034500988994</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="F3">
-        <v>1.016601303684758</v>
+        <v>1.000449505928043</v>
       </c>
       <c r="G3">
-        <v>0.9971756894961423</v>
+        <v>0.9997080448341008</v>
       </c>
       <c r="H3">
-        <v>1.001524634718236</v>
+        <v>0.9992542623511845</v>
       </c>
       <c r="I3">
-        <v>1.016601303684758</v>
+        <v>0.9995394795047361</v>
       </c>
       <c r="J3">
-        <v>0.9991398758812248</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="K3">
-        <v>0.9938294923089565</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="L3">
-        <v>1.003927596016589</v>
+        <v>1.000772967430989</v>
       </c>
       <c r="M3">
-        <v>0.9963258085345702</v>
+        <v>0.9994357952315779</v>
       </c>
       <c r="N3">
-        <v>1.016601303684758</v>
+        <v>0.9986003812442874</v>
       </c>
       <c r="O3">
-        <v>0.9952034500988994</v>
+        <v>1.001992011192623</v>
       </c>
       <c r="P3">
-        <v>0.9971716629900621</v>
+        <v>1.000850028013362</v>
       </c>
       <c r="Q3">
-        <v>0.9961895697975209</v>
+        <v>1.0007139032121</v>
       </c>
       <c r="R3">
-        <v>1.003648209888294</v>
+        <v>1.000100145757004</v>
       </c>
       <c r="S3">
-        <v>0.9971730051587556</v>
+        <v>1.000378617086101</v>
       </c>
       <c r="T3">
-        <v>1.003648209888294</v>
+        <v>1.000100145757004</v>
       </c>
       <c r="U3">
-        <v>1.002030079790256</v>
+        <v>0.9999340581256474</v>
       </c>
       <c r="V3">
-        <v>1.004944324569156</v>
+        <v>0.9996673227493755</v>
       </c>
       <c r="W3">
-        <v>1.000465981342422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999690559646928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.032175895463767</v>
+        <v>0.924062773818321</v>
       </c>
       <c r="D4">
-        <v>0.9982507827241464</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="E4">
-        <v>0.9903828024716924</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="F4">
-        <v>1.032175895463767</v>
+        <v>1.013685251028603</v>
       </c>
       <c r="G4">
-        <v>0.9946987007488697</v>
+        <v>0.924062773818321</v>
       </c>
       <c r="H4">
-        <v>1.00280249276181</v>
+        <v>0.9854472633540525</v>
       </c>
       <c r="I4">
-        <v>1.032175895463767</v>
+        <v>0.9496807018873911</v>
       </c>
       <c r="J4">
-        <v>0.9982507827241464</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="K4">
-        <v>0.9880498339759402</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="L4">
-        <v>1.007755284883397</v>
+        <v>1.045389150418813</v>
       </c>
       <c r="M4">
-        <v>0.9929526019331604</v>
+        <v>0.9741772705849914</v>
       </c>
       <c r="N4">
-        <v>1.032175895463767</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="O4">
-        <v>0.9903828024716924</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="P4">
-        <v>0.9943167925979194</v>
+        <v>1.006168655892631</v>
       </c>
       <c r="Q4">
-        <v>0.9925407516102811</v>
+        <v>1.031225904275967</v>
       </c>
       <c r="R4">
-        <v>1.006936493553202</v>
+        <v>0.9934038633436187</v>
       </c>
       <c r="S4">
-        <v>0.9944440953149029</v>
+        <v>0.9955048607900846</v>
       </c>
       <c r="T4">
-        <v>1.006936493553202</v>
+        <v>0.9934038633436187</v>
       </c>
       <c r="U4">
-        <v>1.003877045352119</v>
+        <v>0.9885972151539619</v>
       </c>
       <c r="V4">
-        <v>1.009536815374448</v>
+        <v>0.9844526277722883</v>
       </c>
       <c r="W4">
-        <v>1.000883549370348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9935739034130884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.059555172074749</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="D5">
-        <v>0.9958365902654681</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="E5">
-        <v>0.9839268131476625</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="F5">
-        <v>1.059555172074749</v>
+        <v>1.006758856707492</v>
       </c>
       <c r="G5">
-        <v>0.989444830030533</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="H5">
-        <v>1.006176166816644</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="I5">
-        <v>1.059555172074749</v>
+        <v>0.9185798313976937</v>
       </c>
       <c r="J5">
-        <v>0.9958365902654681</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="K5">
-        <v>0.9778177002107044</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="L5">
-        <v>1.014045166744097</v>
+        <v>1.067222605230544</v>
       </c>
       <c r="M5">
-        <v>0.9859910980199245</v>
+        <v>0.9600574377305456</v>
       </c>
       <c r="N5">
-        <v>1.059555172074749</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="O5">
-        <v>0.9839268131476625</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="P5">
-        <v>0.9898817017065653</v>
+        <v>0.9971396119553336</v>
       </c>
       <c r="Q5">
-        <v>0.9866858215890977</v>
+        <v>1.036595052157782</v>
       </c>
       <c r="R5">
-        <v>1.013106191829293</v>
+        <v>0.9945858690381856</v>
       </c>
       <c r="S5">
-        <v>0.9897360778145545</v>
+        <v>0.9847788872137376</v>
       </c>
       <c r="T5">
-        <v>1.013106191829293</v>
+        <v>0.9945858690381856</v>
       </c>
       <c r="U5">
-        <v>1.007190851379603</v>
+        <v>0.9859537612112755</v>
       </c>
       <c r="V5">
-        <v>1.017663715518632</v>
+        <v>0.9866586856097982</v>
       </c>
       <c r="W5">
-        <v>1.001599192163723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9909087599338071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.086709400789411</v>
+        <v>0.5568387782921786</v>
       </c>
       <c r="D6">
-        <v>0.993014146146607</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="E6">
-        <v>0.9778213475325859</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="F6">
-        <v>1.086709400789411</v>
+        <v>1.07163952078914</v>
       </c>
       <c r="G6">
-        <v>0.9846365130973456</v>
+        <v>0.5568387782921786</v>
       </c>
       <c r="H6">
-        <v>1.00921850697369</v>
+        <v>0.9101208367629778</v>
       </c>
       <c r="I6">
-        <v>1.086709400789411</v>
+        <v>0.6942951229570927</v>
       </c>
       <c r="J6">
-        <v>0.993014146146607</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="K6">
-        <v>0.9677744979060663</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="L6">
-        <v>1.020236488528782</v>
+        <v>1.28022749561502</v>
       </c>
       <c r="M6">
-        <v>0.9793711338363981</v>
+        <v>0.834613463204528</v>
       </c>
       <c r="N6">
-        <v>1.086709400789411</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="O6">
-        <v>0.9778213475325859</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="P6">
-        <v>0.9854177468395964</v>
+        <v>1.048422831759791</v>
       </c>
       <c r="Q6">
-        <v>0.9812289303149657</v>
+        <v>1.187310174215966</v>
       </c>
       <c r="R6">
-        <v>1.019181631489535</v>
+        <v>0.9741433818704467</v>
       </c>
       <c r="S6">
-        <v>0.9851573355921794</v>
+        <v>0.9771530422413699</v>
       </c>
       <c r="T6">
-        <v>1.019181631489535</v>
+        <v>0.9741433818704467</v>
       </c>
       <c r="U6">
-        <v>1.010545351891487</v>
+        <v>0.9392609022039671</v>
       </c>
       <c r="V6">
-        <v>1.025778161671072</v>
+        <v>0.9165256181815253</v>
       </c>
       <c r="W6">
-        <v>1.002347754351361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9641658231175123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9995041637217166</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="D7">
-        <v>0.9995874138933507</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="E7">
-        <v>1.000922787876317</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="F7">
-        <v>0.9995041637217166</v>
+        <v>0.9927528673195256</v>
       </c>
       <c r="G7">
-        <v>0.9997322525156829</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="H7">
-        <v>1.000412491878902</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="I7">
-        <v>0.9995041637217166</v>
+        <v>0.9958089514151341</v>
       </c>
       <c r="J7">
-        <v>0.9995874138933507</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="K7">
-        <v>1.000166534565879</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="L7">
-        <v>0.9997437552833986</v>
+        <v>1.001601026803674</v>
       </c>
       <c r="M7">
-        <v>0.9996490058697617</v>
+        <v>0.9968615645483524</v>
       </c>
       <c r="N7">
-        <v>0.9995041637217166</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="O7">
-        <v>1.000922787876317</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="P7">
-        <v>1.000255100884834</v>
+        <v>0.9964290283180601</v>
       </c>
       <c r="Q7">
-        <v>1.000327520196</v>
+        <v>0.9953825723506402</v>
       </c>
       <c r="R7">
-        <v>1.000004788497128</v>
+        <v>1.004148963789266</v>
       </c>
       <c r="S7">
-        <v>1.000080818095117</v>
+        <v>0.9965732070614909</v>
       </c>
       <c r="T7">
-        <v>1.000004788497128</v>
+        <v>1.004148963789266</v>
       </c>
       <c r="U7">
-        <v>0.9999366545017667</v>
+        <v>1.002327113979038</v>
       </c>
       <c r="V7">
-        <v>0.9998501563457566</v>
+        <v>1.005779458129565</v>
       </c>
       <c r="W7">
-        <v>0.999964800700626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.000528654839366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9986003812442887</v>
+        <v>1.001452150176409</v>
       </c>
       <c r="D8">
-        <v>0.9997080448341018</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="E8">
-        <v>1.001992011192623</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="F8">
-        <v>0.9986003812442887</v>
+        <v>0.9988322288109102</v>
       </c>
       <c r="G8">
-        <v>0.9994357952315782</v>
+        <v>1.001452150176409</v>
       </c>
       <c r="H8">
-        <v>1.000772967430988</v>
+        <v>1.000389675266121</v>
       </c>
       <c r="I8">
-        <v>0.9986003812442887</v>
+        <v>1.000011661638221</v>
       </c>
       <c r="J8">
-        <v>0.9997080448341018</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="K8">
-        <v>1.000449505928043</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="L8">
-        <v>0.999254262351184</v>
+        <v>0.9999092751883346</v>
       </c>
       <c r="M8">
-        <v>0.9995394795047358</v>
+        <v>0.9993671406922415</v>
       </c>
       <c r="N8">
-        <v>0.9986003812442887</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="O8">
-        <v>1.001992011192623</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="P8">
-        <v>1.000850028013363</v>
+        <v>1.000031525172782</v>
       </c>
       <c r="Q8">
-        <v>1.000713903212101</v>
+        <v>0.9989890204306987</v>
       </c>
       <c r="R8">
-        <v>1.000100145757005</v>
+        <v>1.001130162712508</v>
       </c>
       <c r="S8">
-        <v>1.000378617086101</v>
+        <v>0.9998100636792687</v>
       </c>
       <c r="T8">
-        <v>1.000100145757004</v>
+        <v>1.001130162712508</v>
       </c>
       <c r="U8">
-        <v>0.999934058125648</v>
+        <v>1.000689407207441</v>
       </c>
       <c r="V8">
-        <v>0.9996673227493762</v>
+        <v>1.001217013324344</v>
       </c>
       <c r="W8">
-        <v>0.9999690559646929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000237558716669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9978916904206528</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="D9">
-        <v>1.001058380476491</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="E9">
-        <v>1.002035713308485</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="F9">
-        <v>0.9978916904206528</v>
+        <v>0.9880498339759402</v>
       </c>
       <c r="G9">
-        <v>0.9994557019639064</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="H9">
-        <v>1.000546251314144</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="I9">
-        <v>0.9978916904206528</v>
+        <v>0.9929526019331604</v>
       </c>
       <c r="J9">
-        <v>1.001058380476491</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="K9">
-        <v>1.000595780215876</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="L9">
-        <v>0.9988436363298488</v>
+        <v>1.00280249276181</v>
       </c>
       <c r="M9">
-        <v>1.000182163613692</v>
+        <v>0.9946987007488697</v>
       </c>
       <c r="N9">
-        <v>0.9978916904206528</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="O9">
-        <v>1.002035713308485</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="P9">
-        <v>1.001547046892489</v>
+        <v>0.9943167925979194</v>
       </c>
       <c r="Q9">
-        <v>1.000745707636196</v>
+        <v>0.9925407516102811</v>
       </c>
       <c r="R9">
-        <v>1.00032859473521</v>
+        <v>1.006936493553202</v>
       </c>
       <c r="S9">
-        <v>1.000849931916294</v>
+        <v>0.9944440953149029</v>
       </c>
       <c r="T9">
-        <v>1.00032859473521</v>
+        <v>1.006936493553202</v>
       </c>
       <c r="U9">
-        <v>1.000110371542384</v>
+        <v>1.003877045352119</v>
       </c>
       <c r="V9">
-        <v>0.9996666353180379</v>
+        <v>1.009536815374448</v>
       </c>
       <c r="W9">
-        <v>1.000076164705387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.000883549370348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9954326985564248</v>
+        <v>0.5519808465047171</v>
       </c>
       <c r="D10">
-        <v>1.000883605703395</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="E10">
-        <v>1.005245962166785</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="F10">
-        <v>0.9954326985564248</v>
+        <v>1.074119820580291</v>
       </c>
       <c r="G10">
-        <v>0.9985823673048108</v>
+        <v>0.5519808465047171</v>
       </c>
       <c r="H10">
-        <v>1.001717896525018</v>
+        <v>0.904521587379872</v>
       </c>
       <c r="I10">
-        <v>0.9954326985564248</v>
+        <v>0.6880930949751337</v>
       </c>
       <c r="J10">
-        <v>1.000883605703395</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="K10">
-        <v>1.001368271432507</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="L10">
-        <v>0.9975531715962095</v>
+        <v>1.28832369091216</v>
       </c>
       <c r="M10">
-        <v>0.9996069493042005</v>
+        <v>0.8283901931403016</v>
       </c>
       <c r="N10">
-        <v>0.9954326985564248</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="O10">
-        <v>1.005245962166785</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="P10">
-        <v>1.00306478393509</v>
+        <v>1.054787313120798</v>
       </c>
       <c r="Q10">
-        <v>1.001914164735798</v>
+        <v>1.19299198643859</v>
       </c>
       <c r="R10">
-        <v>1.000520755475535</v>
+        <v>0.975774647467733</v>
       </c>
       <c r="S10">
-        <v>1.00157064505833</v>
+        <v>0.9793216064606326</v>
       </c>
       <c r="T10">
-        <v>1.000520755475535</v>
+        <v>0.9757746474677328</v>
       </c>
       <c r="U10">
-        <v>1.000036158432854</v>
+        <v>0.938928533885875</v>
       </c>
       <c r="V10">
-        <v>0.9991154664575681</v>
+        <v>0.9146926903410206</v>
       </c>
       <c r="W10">
-        <v>1.000048865323669</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9638465411738696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9922111817729552</v>
+        <v>0.6267516946795032</v>
       </c>
       <c r="D11">
-        <v>1.0051647606829</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="E11">
-        <v>1.006995995529726</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="F11">
-        <v>0.9922111817729552</v>
+        <v>0.9524979902825168</v>
       </c>
       <c r="G11">
-        <v>0.9980706138007441</v>
+        <v>0.6267516946795032</v>
       </c>
       <c r="H11">
-        <v>1.001700324426589</v>
+        <v>1.063113318580429</v>
       </c>
       <c r="I11">
-        <v>0.9922111817729552</v>
+        <v>0.7576758478399253</v>
       </c>
       <c r="J11">
-        <v>1.0051647606829</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="K11">
-        <v>1.002077662998428</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="L11">
-        <v>0.9956405053225729</v>
+        <v>1.153798990638324</v>
       </c>
       <c r="M11">
-        <v>1.001247402143914</v>
+        <v>0.9133048310413124</v>
       </c>
       <c r="N11">
-        <v>0.9922111817729552</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="O11">
-        <v>1.006995995529726</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="P11">
-        <v>1.006080378106313</v>
+        <v>0.8917873617497538</v>
       </c>
       <c r="Q11">
-        <v>1.002533304665235</v>
+        <v>1.035063929930659</v>
       </c>
       <c r="R11">
-        <v>1.00145731266186</v>
+        <v>0.9834443675308885</v>
       </c>
       <c r="S11">
-        <v>1.003410456671123</v>
+        <v>0.8989598515136067</v>
       </c>
       <c r="T11">
-        <v>1.00145731266186</v>
+        <v>0.9834443675308885</v>
       </c>
       <c r="U11">
-        <v>1.000610637946581</v>
+        <v>0.9659094834084945</v>
       </c>
       <c r="V11">
-        <v>0.9989307467118559</v>
+        <v>1.006079262545427</v>
       </c>
       <c r="W11">
-        <v>1.000388555834729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9738405101218967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.012390764726486</v>
+        <v>0.8545195453389481</v>
       </c>
       <c r="D12">
-        <v>0.9318562016855172</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="E12">
-        <v>0.9422085480144057</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="F12">
-        <v>1.012390764726486</v>
+        <v>1.019570551126314</v>
       </c>
       <c r="G12">
-        <v>1.038317969746038</v>
+        <v>0.8545195453389481</v>
       </c>
       <c r="H12">
-        <v>0.9766271425499056</v>
+        <v>0.9748358865578933</v>
       </c>
       <c r="I12">
-        <v>1.012390764726486</v>
+        <v>0.8990770793052618</v>
       </c>
       <c r="J12">
-        <v>0.9318562016855172</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="K12">
-        <v>1.000290037004209</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="L12">
-        <v>1.039747067715987</v>
+        <v>1.09033951902105</v>
       </c>
       <c r="M12">
-        <v>0.9961587042885472</v>
+        <v>0.946120357526314</v>
       </c>
       <c r="N12">
-        <v>1.012390764726486</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="O12">
-        <v>0.9422085480144057</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="P12">
-        <v>0.9370323748499614</v>
+        <v>1.011300706406317</v>
       </c>
       <c r="Q12">
-        <v>0.9902632588802218</v>
+        <v>1.0571011125</v>
       </c>
       <c r="R12">
-        <v>0.9621518381421365</v>
+        <v>0.9923340066028078</v>
       </c>
       <c r="S12">
-        <v>0.9707942398153202</v>
+        <v>0.9895739234463158</v>
       </c>
       <c r="T12">
-        <v>0.9621518381421365</v>
+        <v>0.9923340066028078</v>
       </c>
       <c r="U12">
-        <v>0.9811933710431118</v>
+        <v>0.9807805943336844</v>
       </c>
       <c r="V12">
-        <v>0.9874328497797867</v>
+        <v>0.9755045968661055</v>
       </c>
       <c r="W12">
-        <v>0.992199554466387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.988368176668157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.02319818206806</v>
+        <v>1.085747981152344</v>
       </c>
       <c r="D13">
-        <v>1.067964252920152</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="E13">
-        <v>1.059548244205389</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="F13">
-        <v>1.02319818206806</v>
+        <v>1.004940150753645</v>
       </c>
       <c r="G13">
-        <v>0.9480581733904369</v>
+        <v>1.085747981152344</v>
       </c>
       <c r="H13">
-        <v>1.030847741543492</v>
+        <v>0.9813402454322466</v>
       </c>
       <c r="I13">
-        <v>1.02319818206806</v>
+        <v>1.044137901600452</v>
       </c>
       <c r="J13">
-        <v>1.067964252920152</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="K13">
-        <v>0.9904967017439729</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="L13">
-        <v>0.9601667937851358</v>
+        <v>0.978001554848782</v>
       </c>
       <c r="M13">
-        <v>0.9938349866230981</v>
+        <v>1.005762500878115</v>
       </c>
       <c r="N13">
-        <v>1.02319818206806</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="O13">
-        <v>1.059548244205389</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="P13">
-        <v>1.063756248562771</v>
+        <v>1.033707082697218</v>
       </c>
       <c r="Q13">
-        <v>1.003803208797913</v>
+        <v>0.9937143425601036</v>
       </c>
       <c r="R13">
-        <v>1.050236893064534</v>
+        <v>1.013827034645471</v>
       </c>
       <c r="S13">
-        <v>1.025190223505326</v>
+        <v>1.024392222090851</v>
       </c>
       <c r="T13">
-        <v>1.050236893064533</v>
+        <v>1.013827034645471</v>
       </c>
       <c r="U13">
-        <v>1.024692213146009</v>
+        <v>1.011810901203632</v>
       </c>
       <c r="V13">
-        <v>1.024393406930419</v>
+        <v>1.004262108671301</v>
       </c>
       <c r="W13">
-        <v>1.009264384534967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.006957932181207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2116844377548642</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="D14">
-        <v>2.660839704405877</v>
+        <v>1.9813918</v>
       </c>
       <c r="E14">
-        <v>0.4955235286572381</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="F14">
-        <v>0.2116844377548642</v>
+        <v>1.133766800000002</v>
       </c>
       <c r="G14">
-        <v>1.295770565751203</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="H14">
-        <v>0.416158753797579</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="I14">
-        <v>0.2116844377548642</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="J14">
-        <v>2.660839704405877</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="K14">
-        <v>1.211930864539183</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L14">
-        <v>0.6548451648534878</v>
+        <v>1.503870000000002</v>
       </c>
       <c r="M14">
-        <v>2.011207754433008</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="N14">
-        <v>0.2116844377548642</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="O14">
-        <v>0.4955235286572381</v>
+        <v>1.9813918</v>
       </c>
       <c r="P14">
-        <v>1.578181616531558</v>
+        <v>1.100125385</v>
       </c>
       <c r="Q14">
-        <v>0.8956470472042207</v>
+        <v>1.341178385</v>
       </c>
       <c r="R14">
-        <v>1.122682556939327</v>
+        <v>0.9564866533333328</v>
       </c>
       <c r="S14">
-        <v>1.484044599604773</v>
+        <v>0.9670719133333335</v>
       </c>
       <c r="T14">
-        <v>1.122682556939327</v>
+        <v>0.9564866533333328</v>
       </c>
       <c r="U14">
-        <v>1.165954559142296</v>
+        <v>0.8926062324999998</v>
       </c>
       <c r="V14">
-        <v>0.9751005348648094</v>
+        <v>0.8479268239999996</v>
       </c>
       <c r="W14">
-        <v>1.119745096774055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9367964900000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6337144484550302</v>
+        <v>3.9393531</v>
       </c>
       <c r="D15">
-        <v>1.268221409307049</v>
+        <v>0.21885897</v>
       </c>
       <c r="E15">
-        <v>0.9281320838650573</v>
+        <v>0.054357122</v>
       </c>
       <c r="F15">
-        <v>0.6337144484550302</v>
+        <v>1.1568707</v>
       </c>
       <c r="G15">
-        <v>1.125696974183839</v>
+        <v>3.9393531</v>
       </c>
       <c r="H15">
-        <v>0.8472022201645837</v>
+        <v>0.44908907</v>
       </c>
       <c r="I15">
-        <v>0.6337144484550302</v>
+        <v>2.5594139</v>
       </c>
       <c r="J15">
-        <v>1.268221409307049</v>
+        <v>0.054357122</v>
       </c>
       <c r="K15">
-        <v>1.129677826317389</v>
+        <v>0.054357122</v>
       </c>
       <c r="L15">
-        <v>0.9088917048708907</v>
+        <v>0.16990821</v>
       </c>
       <c r="M15">
-        <v>1.240079932296729</v>
+        <v>1.3021676</v>
       </c>
       <c r="N15">
-        <v>0.6337144484550302</v>
+        <v>0.054357122</v>
       </c>
       <c r="O15">
-        <v>0.9281320838650573</v>
+        <v>0.21885897</v>
       </c>
       <c r="P15">
-        <v>1.098176746586053</v>
+        <v>2.079106035</v>
       </c>
       <c r="Q15">
-        <v>1.026914529024448</v>
+        <v>0.760513285</v>
       </c>
       <c r="R15">
-        <v>0.9433559805423789</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="S15">
-        <v>1.107350155785315</v>
+        <v>1.820126556666667</v>
       </c>
       <c r="T15">
-        <v>0.9433559805423789</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="U15">
-        <v>0.9889412289527439</v>
+        <v>1.378684198</v>
       </c>
       <c r="V15">
-        <v>0.9178958728532012</v>
+        <v>1.1138187828</v>
       </c>
       <c r="W15">
-        <v>1.010202074932571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.231252334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.997257158773023</v>
+        <v>0.21885897</v>
       </c>
       <c r="D16">
-        <v>0.9980676596505662</v>
+        <v>1.9813918</v>
       </c>
       <c r="E16">
-        <v>1.002045145213193</v>
+        <v>0.66920919</v>
       </c>
       <c r="F16">
-        <v>0.997257158773023</v>
+        <v>1.1337668</v>
       </c>
       <c r="G16">
-        <v>1.000131605356842</v>
+        <v>0.21885897</v>
       </c>
       <c r="H16">
-        <v>1.000596139215816</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="I16">
-        <v>0.997257158773023</v>
+        <v>0.45733154</v>
       </c>
       <c r="J16">
-        <v>0.9980676596505662</v>
+        <v>0.66920919</v>
       </c>
       <c r="K16">
-        <v>1.001016086168099</v>
+        <v>0.66920919</v>
       </c>
       <c r="L16">
-        <v>0.999531028975202</v>
+        <v>1.50387</v>
       </c>
       <c r="M16">
-        <v>0.999394070879372</v>
+        <v>0.70096497</v>
       </c>
       <c r="N16">
-        <v>0.997257158773023</v>
+        <v>0.66920919</v>
       </c>
       <c r="O16">
-        <v>1.002045145213193</v>
+        <v>1.9813918</v>
       </c>
       <c r="P16">
-        <v>1.00005640243188</v>
+        <v>1.100125385</v>
       </c>
       <c r="Q16">
-        <v>1.001088375285017</v>
+        <v>1.341178385</v>
       </c>
       <c r="R16">
-        <v>0.9991233212122608</v>
+        <v>0.9564866533333333</v>
       </c>
       <c r="S16">
-        <v>1.000081470073534</v>
+        <v>0.9670719133333332</v>
       </c>
       <c r="T16">
-        <v>0.9991233212122608</v>
+        <v>0.9564866533333333</v>
       </c>
       <c r="U16">
-        <v>0.999375392248406</v>
+        <v>0.8926062324999999</v>
       </c>
       <c r="V16">
-        <v>0.9989517455533294</v>
+        <v>0.847926824</v>
       </c>
       <c r="W16">
-        <v>0.9997548617790143</v>
+        <v>0.9367964900000001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003327437791957</v>
+        <v>2.6705054</v>
       </c>
       <c r="D17">
-        <v>1.001452150176409</v>
+        <v>0.49191705</v>
       </c>
       <c r="E17">
-        <v>0.998610900169156</v>
+        <v>0.16635643</v>
       </c>
       <c r="F17">
-        <v>1.003327437791957</v>
+        <v>1.2446004</v>
       </c>
       <c r="G17">
-        <v>0.9993671406922416</v>
+        <v>2.6705054</v>
       </c>
       <c r="H17">
-        <v>0.9999092751883347</v>
+        <v>0.63251363</v>
       </c>
       <c r="I17">
-        <v>1.003327437791957</v>
+        <v>2.0405084</v>
       </c>
       <c r="J17">
-        <v>1.001452150176409</v>
+        <v>0.16635643</v>
       </c>
       <c r="K17">
-        <v>0.9988322288109102</v>
+        <v>0.16635643</v>
       </c>
       <c r="L17">
-        <v>1.000389675266121</v>
+        <v>0.3943864699999999</v>
       </c>
       <c r="M17">
-        <v>1.00001166163822</v>
+        <v>1.3099052</v>
       </c>
       <c r="N17">
-        <v>1.003327437791957</v>
+        <v>0.16635643</v>
       </c>
       <c r="O17">
-        <v>0.998610900169156</v>
+        <v>0.49191705</v>
       </c>
       <c r="P17">
-        <v>1.000031525172782</v>
+        <v>1.581211225</v>
       </c>
       <c r="Q17">
-        <v>0.9989890204306988</v>
+        <v>0.9009111249999999</v>
       </c>
       <c r="R17">
-        <v>1.001130162712508</v>
+        <v>1.10959296</v>
       </c>
       <c r="S17">
-        <v>0.9998100636792689</v>
+        <v>1.490775883333334</v>
       </c>
       <c r="T17">
-        <v>1.001130162712508</v>
+        <v>1.10959296</v>
       </c>
       <c r="U17">
-        <v>1.000689407207441</v>
+        <v>1.15967102</v>
       </c>
       <c r="V17">
-        <v>1.001217013324344</v>
+        <v>0.9610081020000001</v>
       </c>
       <c r="W17">
-        <v>1.000237558716669</v>
+        <v>1.1188366225</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9983095292836703</v>
+        <v>1.026363887013699</v>
       </c>
       <c r="D18">
-        <v>0.9948034582671573</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="E18">
-        <v>1.00306176593806</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="F18">
-        <v>0.9983095292836703</v>
+        <v>0.8551725619178085</v>
       </c>
       <c r="G18">
-        <v>0.999821667788504</v>
+        <v>1.026363887013699</v>
       </c>
       <c r="H18">
-        <v>1.001659176893339</v>
+        <v>1.090327362602739</v>
       </c>
       <c r="I18">
-        <v>0.9983095292836703</v>
+        <v>0.9423578736986303</v>
       </c>
       <c r="J18">
-        <v>0.9948034582671573</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="K18">
-        <v>1.000569841321703</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="L18">
-        <v>1.000379657911465</v>
+        <v>1.015634671095891</v>
       </c>
       <c r="M18">
-        <v>0.9974852534553984</v>
+        <v>0.9447323427397262</v>
       </c>
       <c r="N18">
-        <v>0.9983095292836703</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="O18">
-        <v>1.00306176593806</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="P18">
-        <v>0.9989326121026088</v>
+        <v>0.9419521757671232</v>
       </c>
       <c r="Q18">
-        <v>1.001441716863282</v>
+        <v>0.901136403630137</v>
       </c>
       <c r="R18">
-        <v>0.9987249178296294</v>
+        <v>1.088919141534247</v>
       </c>
       <c r="S18">
-        <v>0.9992289639979072</v>
+        <v>0.9428788980913242</v>
       </c>
       <c r="T18">
-        <v>0.9987249178296294</v>
+        <v>1.088919141534247</v>
       </c>
       <c r="U18">
-        <v>0.998999105319348</v>
+        <v>1.052872441835617</v>
       </c>
       <c r="V18">
-        <v>0.9988611901122125</v>
+        <v>1.118868568082192</v>
       </c>
       <c r="W18">
-        <v>0.9995112938574122</v>
+        <v>1.014372779582192</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9890637369396994</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="D19">
-        <v>0.9818992494382627</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="E19">
-        <v>1.010588409145585</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="F19">
-        <v>0.9890637369396994</v>
+        <v>1.206249889473684</v>
       </c>
       <c r="G19">
-        <v>1.001005986682207</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="H19">
-        <v>1.00477199652341</v>
+        <v>0.7061252994736843</v>
       </c>
       <c r="I19">
-        <v>0.9890637369396994</v>
+        <v>1.454438172631579</v>
       </c>
       <c r="J19">
-        <v>0.9818992494382627</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="K19">
-        <v>1.003746684616939</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="L19">
-        <v>1.000643630454949</v>
+        <v>0.8012957152631578</v>
       </c>
       <c r="M19">
-        <v>0.9929082242633261</v>
+        <v>1.083480193684211</v>
       </c>
       <c r="N19">
-        <v>0.9890637369396994</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="O19">
-        <v>1.010588409145585</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="P19">
-        <v>0.9962438292919236</v>
+        <v>1.405231170263158</v>
       </c>
       <c r="Q19">
-        <v>1.005797197913896</v>
+        <v>1.060889954473684</v>
       </c>
       <c r="R19">
-        <v>0.9938504651745155</v>
+        <v>1.053811886070176</v>
       </c>
       <c r="S19">
-        <v>0.9978312150886848</v>
+        <v>1.297980844736842</v>
       </c>
       <c r="T19">
-        <v>0.9938504651745156</v>
+        <v>1.053811886070176</v>
       </c>
       <c r="U19">
-        <v>0.9956393455514385</v>
+        <v>1.061228962973684</v>
       </c>
       <c r="V19">
-        <v>0.9943242238290907</v>
+        <v>0.9191778339157896</v>
       </c>
       <c r="W19">
-        <v>0.9980784897580472</v>
+        <v>1.051628116092105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="D20">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="E20">
+        <v>1.346592761</v>
+      </c>
+      <c r="F20">
+        <v>0.8664737015789473</v>
+      </c>
+      <c r="G20">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="H20">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="I20">
+        <v>0.9508710757894736</v>
+      </c>
+      <c r="J20">
+        <v>1.346592761</v>
+      </c>
+      <c r="K20">
+        <v>1.346592761</v>
+      </c>
+      <c r="L20">
+        <v>1.017354989473684</v>
+      </c>
+      <c r="M20">
+        <v>0.9430205073684212</v>
+      </c>
+      <c r="N20">
+        <v>1.346592761</v>
+      </c>
+      <c r="O20">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="P20">
+        <v>0.9610771794210525</v>
+      </c>
+      <c r="Q20">
+        <v>0.9108661515789473</v>
+      </c>
+      <c r="R20">
+        <v>1.089582373280702</v>
+      </c>
+      <c r="S20">
+        <v>0.9550582887368421</v>
+      </c>
+      <c r="T20">
+        <v>1.089582373280702</v>
+      </c>
+      <c r="U20">
+        <v>1.052941906802632</v>
+      </c>
+      <c r="V20">
+        <v>1.111672077642105</v>
+      </c>
+      <c r="W20">
+        <v>1.015184976625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="D21">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="E21">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="F21">
+        <v>1.211930864539183</v>
+      </c>
+      <c r="G21">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="H21">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="I21">
+        <v>2.011207754433008</v>
+      </c>
+      <c r="J21">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="K21">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="L21">
+        <v>0.4161587537975789</v>
+      </c>
+      <c r="M21">
+        <v>1.295770565751204</v>
+      </c>
+      <c r="N21">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="O21">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="P21">
+        <v>1.578181616531558</v>
+      </c>
+      <c r="Q21">
+        <v>0.8956470472042208</v>
+      </c>
+      <c r="R21">
+        <v>1.122682556939327</v>
+      </c>
+      <c r="S21">
+        <v>1.484044599604773</v>
+      </c>
+      <c r="T21">
+        <v>1.122682556939327</v>
+      </c>
+      <c r="U21">
+        <v>1.165954559142296</v>
+      </c>
+      <c r="V21">
+        <v>0.9751005348648096</v>
+      </c>
+      <c r="W21">
+        <v>1.119745096774055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="D22">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="E22">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="F22">
+        <v>1.12967782631739</v>
+      </c>
+      <c r="G22">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="H22">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="I22">
+        <v>1.240079932296729</v>
+      </c>
+      <c r="J22">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="K22">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="L22">
+        <v>0.8472022201645837</v>
+      </c>
+      <c r="M22">
+        <v>1.125696974183839</v>
+      </c>
+      <c r="N22">
+        <v>0.6337144484550302</v>
+      </c>
+      <c r="O22">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="P22">
+        <v>1.098176746586053</v>
+      </c>
+      <c r="Q22">
+        <v>1.026914529024448</v>
+      </c>
+      <c r="R22">
+        <v>0.9433559805423789</v>
+      </c>
+      <c r="S22">
+        <v>1.107350155785315</v>
+      </c>
+      <c r="T22">
+        <v>0.9433559805423789</v>
+      </c>
+      <c r="U22">
+        <v>0.9889412289527439</v>
+      </c>
+      <c r="V22">
+        <v>0.9178958728532012</v>
+      </c>
+      <c r="W22">
+        <v>1.010202074932571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="D23">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="E23">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="F23">
+        <v>1.000290037004209</v>
+      </c>
+      <c r="G23">
+        <v>0.9318562016855172</v>
+      </c>
+      <c r="H23">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="I23">
+        <v>0.9961587042885472</v>
+      </c>
+      <c r="J23">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="K23">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="L23">
+        <v>0.9766271425499056</v>
+      </c>
+      <c r="M23">
+        <v>1.038317969746038</v>
+      </c>
+      <c r="N23">
+        <v>1.012390764726486</v>
+      </c>
+      <c r="O23">
+        <v>0.9422085480144056</v>
+      </c>
+      <c r="P23">
+        <v>0.9370323748499614</v>
+      </c>
+      <c r="Q23">
+        <v>0.9902632588802217</v>
+      </c>
+      <c r="R23">
+        <v>0.9621518381421365</v>
+      </c>
+      <c r="S23">
+        <v>0.9707942398153202</v>
+      </c>
+      <c r="T23">
+        <v>0.9621518381421365</v>
+      </c>
+      <c r="U23">
+        <v>0.9811933710431118</v>
+      </c>
+      <c r="V23">
+        <v>0.9874328497797867</v>
+      </c>
+      <c r="W23">
+        <v>0.992199554466387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="D24">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="E24">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="F24">
+        <v>0.9904967017439729</v>
+      </c>
+      <c r="G24">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="H24">
+        <v>0.9601667937851358</v>
+      </c>
+      <c r="I24">
+        <v>0.9938349866230983</v>
+      </c>
+      <c r="J24">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="K24">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="L24">
+        <v>1.030847741543492</v>
+      </c>
+      <c r="M24">
+        <v>0.9480581733904366</v>
+      </c>
+      <c r="N24">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="O24">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="P24">
+        <v>1.063756248562771</v>
+      </c>
+      <c r="Q24">
+        <v>1.003803208797913</v>
+      </c>
+      <c r="R24">
+        <v>1.050236893064534</v>
+      </c>
+      <c r="S24">
+        <v>1.025190223505326</v>
+      </c>
+      <c r="T24">
+        <v>1.050236893064534</v>
+      </c>
+      <c r="U24">
+        <v>1.024692213146009</v>
+      </c>
+      <c r="V24">
+        <v>1.024393406930419</v>
+      </c>
+      <c r="W24">
+        <v>1.009264384534967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.1398369913072594</v>
+      </c>
+      <c r="D25">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="E25">
+        <v>2.273757410017424</v>
+      </c>
+      <c r="F25">
+        <v>0.5794175360033085</v>
+      </c>
+      <c r="G25">
+        <v>0.1398369913072594</v>
+      </c>
+      <c r="H25">
+        <v>1.411107354708371</v>
+      </c>
+      <c r="I25">
+        <v>0.3537836678590167</v>
+      </c>
+      <c r="J25">
+        <v>2.273757410017424</v>
+      </c>
+      <c r="K25">
+        <v>2.273757410017424</v>
+      </c>
+      <c r="L25">
+        <v>1.30429562634978</v>
+      </c>
+      <c r="M25">
+        <v>0.761409240346148</v>
+      </c>
+      <c r="N25">
+        <v>2.273757410017424</v>
+      </c>
+      <c r="O25">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="P25">
+        <v>0.5065146481045995</v>
+      </c>
+      <c r="Q25">
+        <v>0.8173007726240438</v>
+      </c>
+      <c r="R25">
+        <v>1.095595568742208</v>
+      </c>
+      <c r="S25">
+        <v>0.5914795121851156</v>
+      </c>
+      <c r="T25">
+        <v>1.095595568742207</v>
+      </c>
+      <c r="U25">
+        <v>1.012048986643193</v>
+      </c>
+      <c r="V25">
+        <v>1.264390671318039</v>
+      </c>
+      <c r="W25">
+        <v>0.9621000164366558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.5397908180613789</v>
+      </c>
+      <c r="D26">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="E26">
+        <v>0.9754516980295286</v>
+      </c>
+      <c r="F26">
+        <v>1.012611263321818</v>
+      </c>
+      <c r="G26">
+        <v>0.5397908180613789</v>
+      </c>
+      <c r="H26">
+        <v>1.04786352455284</v>
+      </c>
+      <c r="I26">
+        <v>0.7503685037402332</v>
+      </c>
+      <c r="J26">
+        <v>0.9754516980295286</v>
+      </c>
+      <c r="K26">
+        <v>0.9754516980295286</v>
+      </c>
+      <c r="L26">
+        <v>1.164745750124684</v>
+      </c>
+      <c r="M26">
+        <v>0.9491766411145567</v>
+      </c>
+      <c r="N26">
+        <v>0.9754516980295286</v>
+      </c>
+      <c r="O26">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="P26">
+        <v>0.8879809130911628</v>
+      </c>
+      <c r="Q26">
+        <v>1.092673824617752</v>
+      </c>
+      <c r="R26">
+        <v>0.9171378414039514</v>
+      </c>
+      <c r="S26">
+        <v>0.9083794890989608</v>
+      </c>
+      <c r="T26">
+        <v>0.9171378414039514</v>
+      </c>
+      <c r="U26">
+        <v>0.9251475413316027</v>
+      </c>
+      <c r="V26">
+        <v>0.9352083726711878</v>
+      </c>
+      <c r="W26">
+        <v>0.9595224008832482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="D27">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="E27">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="F27">
+        <v>0.9888649680342922</v>
+      </c>
+      <c r="G27">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="H27">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="I27">
+        <v>0.983514257247986</v>
+      </c>
+      <c r="J27">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="K27">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="L27">
+        <v>1.00255921001764</v>
+      </c>
+      <c r="M27">
+        <v>1.003993431252831</v>
+      </c>
+      <c r="N27">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="O27">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="P27">
+        <v>0.9719373791648656</v>
+      </c>
+      <c r="Q27">
+        <v>0.9942328285096711</v>
+      </c>
+      <c r="R27">
+        <v>0.9931558578191185</v>
+      </c>
+      <c r="S27">
+        <v>0.9826227298608541</v>
+      </c>
+      <c r="T27">
+        <v>0.9931558578191185</v>
+      </c>
+      <c r="U27">
+        <v>0.9958652511775467</v>
+      </c>
+      <c r="V27">
+        <v>1.003810763967562</v>
+      </c>
+      <c r="W27">
+        <v>0.997228095223484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.076029646955971</v>
+      </c>
+      <c r="D28">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="E28">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="F28">
+        <v>0.971715513307671</v>
+      </c>
+      <c r="G28">
+        <v>1.076029646955971</v>
+      </c>
+      <c r="H28">
+        <v>1.020896776568086</v>
+      </c>
+      <c r="I28">
+        <v>1.042544843415594</v>
+      </c>
+      <c r="J28">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="K28">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="L28">
+        <v>0.9622643181684174</v>
+      </c>
+      <c r="M28">
+        <v>1.019847866400511</v>
+      </c>
+      <c r="N28">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="O28">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="P28">
+        <v>0.9946232803738281</v>
+      </c>
+      <c r="Q28">
+        <v>0.966532390096098</v>
+      </c>
+      <c r="R28">
+        <v>1.015150877846118</v>
+      </c>
+      <c r="S28">
+        <v>1.003031475716056</v>
+      </c>
+      <c r="T28">
+        <v>1.015150877846118</v>
+      </c>
+      <c r="U28">
+        <v>1.016325124984716</v>
+      </c>
+      <c r="V28">
+        <v>1.024301314545912</v>
+      </c>
+      <c r="W28">
+        <v>1.007840243924829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.309097447581508</v>
+      </c>
+      <c r="D29">
+        <v>0.8727369923437135</v>
+      </c>
+      <c r="E29">
+        <v>1.085437734799395</v>
+      </c>
+      <c r="F29">
+        <v>0.9549336337198835</v>
+      </c>
+      <c r="G29">
+        <v>1.309097447581508</v>
+      </c>
+      <c r="H29">
+        <v>0.9726590330984959</v>
+      </c>
+      <c r="I29">
+        <v>1.131293361175294</v>
+      </c>
+      <c r="J29">
+        <v>1.085437734799395</v>
+      </c>
+      <c r="K29">
+        <v>1.085437734799395</v>
+      </c>
+      <c r="L29">
+        <v>0.9267225651262722</v>
+      </c>
+      <c r="M29">
+        <v>0.9966096048957813</v>
+      </c>
+      <c r="N29">
+        <v>1.085437734799395</v>
+      </c>
+      <c r="O29">
+        <v>0.8727369923437135</v>
+      </c>
+      <c r="P29">
+        <v>1.090917219962611</v>
+      </c>
+      <c r="Q29">
+        <v>0.9346732986197475</v>
+      </c>
+      <c r="R29">
+        <v>1.089090724908206</v>
+      </c>
+      <c r="S29">
+        <v>1.059481348273668</v>
+      </c>
+      <c r="T29">
+        <v>1.089090724908206</v>
+      </c>
+      <c r="U29">
+        <v>1.0659704449051</v>
+      </c>
+      <c r="V29">
+        <v>1.069863902883959</v>
+      </c>
+      <c r="W29">
+        <v>1.031186296592543</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.924062773818321</v>
+        <v>0.8802992153299319</v>
       </c>
       <c r="D4">
-        <v>1.088274537966942</v>
+        <v>1.103694516580722</v>
       </c>
       <c r="E4">
-        <v>0.9678742782455937</v>
+        <v>0.9881753279078053</v>
       </c>
       <c r="F4">
-        <v>1.013685251028603</v>
+        <v>1.007981965640347</v>
       </c>
       <c r="G4">
-        <v>0.924062773818321</v>
+        <v>0.8802992153299319</v>
       </c>
       <c r="H4">
-        <v>0.9854472633540525</v>
+        <v>0.9938876833932523</v>
       </c>
       <c r="I4">
-        <v>0.9496807018873911</v>
+        <v>0.9224722719409898</v>
       </c>
       <c r="J4">
-        <v>0.9678742782455937</v>
+        <v>0.9881753279078053</v>
       </c>
       <c r="K4">
-        <v>0.9678742782455937</v>
+        <v>0.9881753279078053</v>
       </c>
       <c r="L4">
-        <v>1.045389150418813</v>
+        <v>1.061797652766367</v>
       </c>
       <c r="M4">
-        <v>0.9741772705849914</v>
+        <v>0.9655800664465234</v>
       </c>
       <c r="N4">
-        <v>0.9678742782455937</v>
+        <v>0.9881753279078053</v>
       </c>
       <c r="O4">
-        <v>1.088274537966942</v>
+        <v>1.103694516580722</v>
       </c>
       <c r="P4">
-        <v>1.006168655892631</v>
+        <v>0.9919968659553271</v>
       </c>
       <c r="Q4">
-        <v>1.031225904275967</v>
+        <v>1.034637291513623</v>
       </c>
       <c r="R4">
-        <v>0.9934038633436187</v>
+        <v>0.9907230199394865</v>
       </c>
       <c r="S4">
-        <v>0.9955048607900846</v>
+        <v>0.9831912661190593</v>
       </c>
       <c r="T4">
-        <v>0.9934038633436187</v>
+        <v>0.9907230199394865</v>
       </c>
       <c r="U4">
-        <v>0.9885972151539619</v>
+        <v>0.9844372815662458</v>
       </c>
       <c r="V4">
-        <v>0.9844526277722883</v>
+        <v>0.9851848908345577</v>
       </c>
       <c r="W4">
-        <v>0.9935739034130884</v>
+        <v>0.9904860875007423</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8811465573256494</v>
+        <v>1.039738524628567</v>
       </c>
       <c r="D5">
-        <v>1.113132666585018</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="E5">
-        <v>0.9894783832038891</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="F5">
-        <v>1.006758856707492</v>
+        <v>0.8392586835029057</v>
       </c>
       <c r="G5">
-        <v>0.8811465573256494</v>
+        <v>1.039738524628567</v>
       </c>
       <c r="H5">
-        <v>0.9908937412896246</v>
+        <v>1.108700854873764</v>
       </c>
       <c r="I5">
-        <v>0.9185798313976937</v>
+        <v>0.9519489806454151</v>
       </c>
       <c r="J5">
-        <v>0.9894783832038891</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="K5">
-        <v>0.9894783832038891</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="L5">
-        <v>1.067222605230544</v>
+        <v>0.9989272406430745</v>
       </c>
       <c r="M5">
-        <v>0.9600574377305456</v>
+        <v>0.9537681537553273</v>
       </c>
       <c r="N5">
-        <v>0.9894783832038891</v>
+        <v>1.429159006619342</v>
       </c>
       <c r="O5">
-        <v>1.113132666585018</v>
+        <v>0.8082073620642399</v>
       </c>
       <c r="P5">
-        <v>0.9971396119553336</v>
+        <v>0.9239729433464035</v>
       </c>
       <c r="Q5">
-        <v>1.036595052157782</v>
+        <v>0.8809877579097836</v>
       </c>
       <c r="R5">
-        <v>0.9945858690381856</v>
+        <v>1.092368297770716</v>
       </c>
       <c r="S5">
-        <v>0.9847788872137376</v>
+        <v>0.9339046801493781</v>
       </c>
       <c r="T5">
-        <v>0.9945858690381856</v>
+        <v>1.092368297770716</v>
       </c>
       <c r="U5">
-        <v>0.9859537612112755</v>
+        <v>1.057718261766869</v>
       </c>
       <c r="V5">
-        <v>0.9866586856097982</v>
+        <v>1.132006410737364</v>
       </c>
       <c r="W5">
-        <v>0.9909087599338071</v>
+        <v>1.016213600841579</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5568387782921786</v>
+        <v>0.924062773818321</v>
       </c>
       <c r="D6">
-        <v>1.540006885227403</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="E6">
-        <v>0.8255844820917588</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="F6">
-        <v>1.07163952078914</v>
+        <v>1.013685251028603</v>
       </c>
       <c r="G6">
-        <v>0.5568387782921786</v>
+        <v>0.924062773818321</v>
       </c>
       <c r="H6">
-        <v>0.9101208367629778</v>
+        <v>0.9854472633540525</v>
       </c>
       <c r="I6">
-        <v>0.6942951229570927</v>
+        <v>0.9496807018873911</v>
       </c>
       <c r="J6">
-        <v>0.8255844820917588</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="K6">
-        <v>0.8255844820917588</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="L6">
-        <v>1.28022749561502</v>
+        <v>1.045389150418813</v>
       </c>
       <c r="M6">
-        <v>0.834613463204528</v>
+        <v>0.9741772705849914</v>
       </c>
       <c r="N6">
-        <v>0.8255844820917588</v>
+        <v>0.9678742782455937</v>
       </c>
       <c r="O6">
-        <v>1.540006885227403</v>
+        <v>1.088274537966942</v>
       </c>
       <c r="P6">
-        <v>1.048422831759791</v>
+        <v>1.006168655892631</v>
       </c>
       <c r="Q6">
-        <v>1.187310174215966</v>
+        <v>1.031225904275967</v>
       </c>
       <c r="R6">
-        <v>0.9741433818704467</v>
+        <v>0.9934038633436187</v>
       </c>
       <c r="S6">
-        <v>0.9771530422413699</v>
+        <v>0.9955048607900846</v>
       </c>
       <c r="T6">
-        <v>0.9741433818704467</v>
+        <v>0.9934038633436187</v>
       </c>
       <c r="U6">
-        <v>0.9392609022039671</v>
+        <v>0.9885972151539619</v>
       </c>
       <c r="V6">
-        <v>0.9165256181815253</v>
+        <v>0.9844526277722883</v>
       </c>
       <c r="W6">
-        <v>0.9641658231175123</v>
+        <v>0.9935739034130884</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9989544764831922</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="D7">
-        <v>0.9939035801529279</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="E7">
-        <v>1.019588834731677</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="F7">
-        <v>0.9927528673195256</v>
+        <v>1.006758856707492</v>
       </c>
       <c r="G7">
-        <v>0.9989544764831922</v>
+        <v>0.8811465573256494</v>
       </c>
       <c r="H7">
-        <v>1.004757937260444</v>
+        <v>0.9908937412896246</v>
       </c>
       <c r="I7">
-        <v>0.9958089514151341</v>
+        <v>0.9185798313976937</v>
       </c>
       <c r="J7">
-        <v>1.019588834731677</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="K7">
-        <v>1.019588834731677</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="L7">
-        <v>1.001601026803674</v>
+        <v>1.067222605230544</v>
       </c>
       <c r="M7">
-        <v>0.9968615645483524</v>
+        <v>0.9600574377305456</v>
       </c>
       <c r="N7">
-        <v>1.019588834731677</v>
+        <v>0.9894783832038891</v>
       </c>
       <c r="O7">
-        <v>0.9939035801529279</v>
+        <v>1.113132666585018</v>
       </c>
       <c r="P7">
-        <v>0.9964290283180601</v>
+        <v>0.9971396119553336</v>
       </c>
       <c r="Q7">
-        <v>0.9953825723506402</v>
+        <v>1.036595052157782</v>
       </c>
       <c r="R7">
-        <v>1.004148963789266</v>
+        <v>0.9945858690381856</v>
       </c>
       <c r="S7">
-        <v>0.9965732070614909</v>
+        <v>0.9847788872137376</v>
       </c>
       <c r="T7">
-        <v>1.004148963789266</v>
+        <v>0.9945858690381856</v>
       </c>
       <c r="U7">
-        <v>1.002327113979038</v>
+        <v>0.9859537612112755</v>
       </c>
       <c r="V7">
-        <v>1.005779458129565</v>
+        <v>0.9866586856097982</v>
       </c>
       <c r="W7">
-        <v>1.000528654839366</v>
+        <v>0.9909087599338071</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001452150176409</v>
+        <v>0.5568387782921786</v>
       </c>
       <c r="D8">
-        <v>0.9986109001691559</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="E8">
-        <v>1.003327437791958</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="F8">
-        <v>0.9988322288109102</v>
+        <v>1.07163952078914</v>
       </c>
       <c r="G8">
-        <v>1.001452150176409</v>
+        <v>0.5568387782921786</v>
       </c>
       <c r="H8">
-        <v>1.000389675266121</v>
+        <v>0.9101208367629778</v>
       </c>
       <c r="I8">
-        <v>1.000011661638221</v>
+        <v>0.6942951229570927</v>
       </c>
       <c r="J8">
-        <v>1.003327437791958</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="K8">
-        <v>1.003327437791958</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="L8">
-        <v>0.9999092751883346</v>
+        <v>1.28022749561502</v>
       </c>
       <c r="M8">
-        <v>0.9993671406922415</v>
+        <v>0.834613463204528</v>
       </c>
       <c r="N8">
-        <v>1.003327437791958</v>
+        <v>0.8255844820917588</v>
       </c>
       <c r="O8">
-        <v>0.9986109001691559</v>
+        <v>1.540006885227403</v>
       </c>
       <c r="P8">
-        <v>1.000031525172782</v>
+        <v>1.048422831759791</v>
       </c>
       <c r="Q8">
-        <v>0.9989890204306987</v>
+        <v>1.187310174215966</v>
       </c>
       <c r="R8">
-        <v>1.001130162712508</v>
+        <v>0.9741433818704467</v>
       </c>
       <c r="S8">
-        <v>0.9998100636792687</v>
+        <v>0.9771530422413699</v>
       </c>
       <c r="T8">
-        <v>1.001130162712508</v>
+        <v>0.9741433818704467</v>
       </c>
       <c r="U8">
-        <v>1.000689407207441</v>
+        <v>0.9392609022039671</v>
       </c>
       <c r="V8">
-        <v>1.001217013324344</v>
+        <v>0.9165256181815253</v>
       </c>
       <c r="W8">
-        <v>1.000237558716669</v>
+        <v>0.9641658231175123</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9982507827241464</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="D9">
-        <v>0.9903828024716924</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="E9">
-        <v>1.032175895463767</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="F9">
-        <v>0.9880498339759402</v>
+        <v>0.9927528673195256</v>
       </c>
       <c r="G9">
-        <v>0.9982507827241464</v>
+        <v>0.9989544764831922</v>
       </c>
       <c r="H9">
-        <v>1.007755284883397</v>
+        <v>1.004757937260444</v>
       </c>
       <c r="I9">
-        <v>0.9929526019331604</v>
+        <v>0.9958089514151341</v>
       </c>
       <c r="J9">
-        <v>1.032175895463767</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="K9">
-        <v>1.032175895463767</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="L9">
-        <v>1.00280249276181</v>
+        <v>1.001601026803674</v>
       </c>
       <c r="M9">
-        <v>0.9946987007488697</v>
+        <v>0.9968615645483524</v>
       </c>
       <c r="N9">
-        <v>1.032175895463767</v>
+        <v>1.019588834731677</v>
       </c>
       <c r="O9">
-        <v>0.9903828024716924</v>
+        <v>0.9939035801529279</v>
       </c>
       <c r="P9">
-        <v>0.9943167925979194</v>
+        <v>0.9964290283180601</v>
       </c>
       <c r="Q9">
-        <v>0.9925407516102811</v>
+        <v>0.9953825723506402</v>
       </c>
       <c r="R9">
-        <v>1.006936493553202</v>
+        <v>1.004148963789266</v>
       </c>
       <c r="S9">
-        <v>0.9944440953149029</v>
+        <v>0.9965732070614909</v>
       </c>
       <c r="T9">
-        <v>1.006936493553202</v>
+        <v>1.004148963789266</v>
       </c>
       <c r="U9">
-        <v>1.003877045352119</v>
+        <v>1.002327113979038</v>
       </c>
       <c r="V9">
-        <v>1.009536815374448</v>
+        <v>1.005779458129565</v>
       </c>
       <c r="W9">
-        <v>1.000883549370348</v>
+        <v>1.000528654839366</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5519808465047171</v>
+        <v>1.001452150176409</v>
       </c>
       <c r="D10">
-        <v>1.557593779736879</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="E10">
-        <v>0.8177493161616026</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="F10">
-        <v>1.074119820580291</v>
+        <v>0.9988322288109102</v>
       </c>
       <c r="G10">
-        <v>0.5519808465047171</v>
+        <v>1.001452150176409</v>
       </c>
       <c r="H10">
-        <v>0.904521587379872</v>
+        <v>1.000389675266121</v>
       </c>
       <c r="I10">
-        <v>0.6880930949751337</v>
+        <v>1.000011661638221</v>
       </c>
       <c r="J10">
-        <v>0.8177493161616026</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="K10">
-        <v>0.8177493161616026</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="L10">
-        <v>1.28832369091216</v>
+        <v>0.9999092751883346</v>
       </c>
       <c r="M10">
-        <v>0.8283901931403016</v>
+        <v>0.9993671406922415</v>
       </c>
       <c r="N10">
-        <v>0.8177493161616026</v>
+        <v>1.003327437791958</v>
       </c>
       <c r="O10">
-        <v>1.557593779736879</v>
+        <v>0.9986109001691559</v>
       </c>
       <c r="P10">
-        <v>1.054787313120798</v>
+        <v>1.000031525172782</v>
       </c>
       <c r="Q10">
-        <v>1.19299198643859</v>
+        <v>0.9989890204306987</v>
       </c>
       <c r="R10">
-        <v>0.975774647467733</v>
+        <v>1.001130162712508</v>
       </c>
       <c r="S10">
-        <v>0.9793216064606326</v>
+        <v>0.9998100636792687</v>
       </c>
       <c r="T10">
-        <v>0.9757746474677328</v>
+        <v>1.001130162712508</v>
       </c>
       <c r="U10">
-        <v>0.938928533885875</v>
+        <v>1.000689407207441</v>
       </c>
       <c r="V10">
-        <v>0.9146926903410206</v>
+        <v>1.001217013324344</v>
       </c>
       <c r="W10">
-        <v>0.9638465411738696</v>
+        <v>1.000237558716669</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.6267516946795032</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="D11">
-        <v>1.156823028820005</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="E11">
-        <v>1.166758379093158</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="F11">
-        <v>0.9524979902825168</v>
+        <v>0.9880498339759402</v>
       </c>
       <c r="G11">
-        <v>0.6267516946795032</v>
+        <v>0.9982507827241464</v>
       </c>
       <c r="H11">
-        <v>1.063113318580429</v>
+        <v>1.007755284883397</v>
       </c>
       <c r="I11">
-        <v>0.7576758478399253</v>
+        <v>0.9929526019331604</v>
       </c>
       <c r="J11">
-        <v>1.166758379093158</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="K11">
-        <v>1.166758379093158</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="L11">
-        <v>1.153798990638324</v>
+        <v>1.00280249276181</v>
       </c>
       <c r="M11">
-        <v>0.9133048310413124</v>
+        <v>0.9946987007488697</v>
       </c>
       <c r="N11">
-        <v>1.166758379093158</v>
+        <v>1.032175895463767</v>
       </c>
       <c r="O11">
-        <v>1.156823028820005</v>
+        <v>0.9903828024716924</v>
       </c>
       <c r="P11">
-        <v>0.8917873617497538</v>
+        <v>0.9943167925979194</v>
       </c>
       <c r="Q11">
-        <v>1.035063929930659</v>
+        <v>0.9925407516102811</v>
       </c>
       <c r="R11">
-        <v>0.9834443675308885</v>
+        <v>1.006936493553202</v>
       </c>
       <c r="S11">
-        <v>0.8989598515136067</v>
+        <v>0.9944440953149029</v>
       </c>
       <c r="T11">
-        <v>0.9834443675308885</v>
+        <v>1.006936493553202</v>
       </c>
       <c r="U11">
-        <v>0.9659094834084945</v>
+        <v>1.003877045352119</v>
       </c>
       <c r="V11">
-        <v>1.006079262545427</v>
+        <v>1.009536815374448</v>
       </c>
       <c r="W11">
-        <v>0.9738405101218967</v>
+        <v>1.000883549370348</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8545195453389481</v>
+        <v>0.5519808465047171</v>
       </c>
       <c r="D12">
-        <v>1.168081867473685</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="E12">
-        <v>0.9544006069957901</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="F12">
-        <v>1.019570551126314</v>
+        <v>1.074119820580291</v>
       </c>
       <c r="G12">
-        <v>0.8545195453389481</v>
+        <v>0.5519808465047171</v>
       </c>
       <c r="H12">
-        <v>0.9748358865578933</v>
+        <v>0.904521587379872</v>
       </c>
       <c r="I12">
-        <v>0.8990770793052618</v>
+        <v>0.6880930949751337</v>
       </c>
       <c r="J12">
-        <v>0.9544006069957901</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="K12">
-        <v>0.9544006069957901</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="L12">
-        <v>1.09033951902105</v>
+        <v>1.28832369091216</v>
       </c>
       <c r="M12">
-        <v>0.946120357526314</v>
+        <v>0.8283901931403016</v>
       </c>
       <c r="N12">
-        <v>0.9544006069957901</v>
+        <v>0.8177493161616026</v>
       </c>
       <c r="O12">
-        <v>1.168081867473685</v>
+        <v>1.557593779736879</v>
       </c>
       <c r="P12">
-        <v>1.011300706406317</v>
+        <v>1.054787313120798</v>
       </c>
       <c r="Q12">
-        <v>1.0571011125</v>
+        <v>1.19299198643859</v>
       </c>
       <c r="R12">
-        <v>0.9923340066028078</v>
+        <v>0.975774647467733</v>
       </c>
       <c r="S12">
-        <v>0.9895739234463158</v>
+        <v>0.9793216064606326</v>
       </c>
       <c r="T12">
-        <v>0.9923340066028078</v>
+        <v>0.9757746474677328</v>
       </c>
       <c r="U12">
-        <v>0.9807805943336844</v>
+        <v>0.938928533885875</v>
       </c>
       <c r="V12">
-        <v>0.9755045968661055</v>
+        <v>0.9146926903410206</v>
       </c>
       <c r="W12">
-        <v>0.988368176668157</v>
+        <v>0.9638465411738696</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.085747981152344</v>
+        <v>0.6267516946795032</v>
       </c>
       <c r="D13">
-        <v>0.9816661842420923</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="E13">
-        <v>0.9740669385419765</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="F13">
-        <v>1.004940150753645</v>
+        <v>0.9524979902825168</v>
       </c>
       <c r="G13">
-        <v>1.085747981152344</v>
+        <v>0.6267516946795032</v>
       </c>
       <c r="H13">
-        <v>0.9813402454322466</v>
+        <v>1.063113318580429</v>
       </c>
       <c r="I13">
-        <v>1.044137901600452</v>
+        <v>0.7576758478399253</v>
       </c>
       <c r="J13">
-        <v>0.9740669385419765</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="K13">
-        <v>0.9740669385419765</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="L13">
-        <v>0.978001554848782</v>
+        <v>1.153798990638324</v>
       </c>
       <c r="M13">
-        <v>1.005762500878115</v>
+        <v>0.9133048310413124</v>
       </c>
       <c r="N13">
-        <v>0.9740669385419765</v>
+        <v>1.166758379093158</v>
       </c>
       <c r="O13">
-        <v>0.9816661842420923</v>
+        <v>1.156823028820005</v>
       </c>
       <c r="P13">
-        <v>1.033707082697218</v>
+        <v>0.8917873617497538</v>
       </c>
       <c r="Q13">
-        <v>0.9937143425601036</v>
+        <v>1.035063929930659</v>
       </c>
       <c r="R13">
-        <v>1.013827034645471</v>
+        <v>0.9834443675308885</v>
       </c>
       <c r="S13">
-        <v>1.024392222090851</v>
+        <v>0.8989598515136067</v>
       </c>
       <c r="T13">
-        <v>1.013827034645471</v>
+        <v>0.9834443675308885</v>
       </c>
       <c r="U13">
-        <v>1.011810901203632</v>
+        <v>0.9659094834084945</v>
       </c>
       <c r="V13">
-        <v>1.004262108671301</v>
+        <v>1.006079262545427</v>
       </c>
       <c r="W13">
-        <v>1.006957932181207</v>
+        <v>0.9738405101218967</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2188589699999998</v>
+        <v>0.8545195453389481</v>
       </c>
       <c r="D14">
-        <v>1.9813918</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="E14">
-        <v>0.6692091899999988</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="F14">
-        <v>1.133766800000002</v>
+        <v>1.019570551126314</v>
       </c>
       <c r="G14">
-        <v>0.2188589699999998</v>
+        <v>0.8545195453389481</v>
       </c>
       <c r="H14">
-        <v>0.8289786500000015</v>
+        <v>0.9748358865578933</v>
       </c>
       <c r="I14">
-        <v>0.4573315399999993</v>
+        <v>0.8990770793052618</v>
       </c>
       <c r="J14">
-        <v>0.6692091899999988</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="K14">
-        <v>0.6692091899999988</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="L14">
-        <v>1.503870000000002</v>
+        <v>1.09033951902105</v>
       </c>
       <c r="M14">
-        <v>0.7009649700000007</v>
+        <v>0.946120357526314</v>
       </c>
       <c r="N14">
-        <v>0.6692091899999988</v>
+        <v>0.9544006069957901</v>
       </c>
       <c r="O14">
-        <v>1.9813918</v>
+        <v>1.168081867473685</v>
       </c>
       <c r="P14">
-        <v>1.100125385</v>
+        <v>1.011300706406317</v>
       </c>
       <c r="Q14">
-        <v>1.341178385</v>
+        <v>1.0571011125</v>
       </c>
       <c r="R14">
-        <v>0.9564866533333328</v>
+        <v>0.9923340066028078</v>
       </c>
       <c r="S14">
-        <v>0.9670719133333335</v>
+        <v>0.9895739234463158</v>
       </c>
       <c r="T14">
-        <v>0.9564866533333328</v>
+        <v>0.9923340066028078</v>
       </c>
       <c r="U14">
-        <v>0.8926062324999998</v>
+        <v>0.9807805943336844</v>
       </c>
       <c r="V14">
-        <v>0.8479268239999996</v>
+        <v>0.9755045968661055</v>
       </c>
       <c r="W14">
-        <v>0.9367964900000005</v>
+        <v>0.988368176668157</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>3.9393531</v>
+        <v>1.085747981152344</v>
       </c>
       <c r="D15">
-        <v>0.21885897</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="E15">
-        <v>0.054357122</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="F15">
-        <v>1.1568707</v>
+        <v>1.004940150753645</v>
       </c>
       <c r="G15">
-        <v>3.9393531</v>
+        <v>1.085747981152344</v>
       </c>
       <c r="H15">
-        <v>0.44908907</v>
+        <v>0.9813402454322466</v>
       </c>
       <c r="I15">
-        <v>2.5594139</v>
+        <v>1.044137901600452</v>
       </c>
       <c r="J15">
-        <v>0.054357122</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="K15">
-        <v>0.054357122</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="L15">
-        <v>0.16990821</v>
+        <v>0.978001554848782</v>
       </c>
       <c r="M15">
-        <v>1.3021676</v>
+        <v>1.005762500878115</v>
       </c>
       <c r="N15">
-        <v>0.054357122</v>
+        <v>0.9740669385419765</v>
       </c>
       <c r="O15">
-        <v>0.21885897</v>
+        <v>0.9816661842420923</v>
       </c>
       <c r="P15">
-        <v>2.079106035</v>
+        <v>1.033707082697218</v>
       </c>
       <c r="Q15">
-        <v>0.760513285</v>
+        <v>0.9937143425601036</v>
       </c>
       <c r="R15">
-        <v>1.404189730666667</v>
+        <v>1.013827034645471</v>
       </c>
       <c r="S15">
-        <v>1.820126556666667</v>
+        <v>1.024392222090851</v>
       </c>
       <c r="T15">
-        <v>1.404189730666667</v>
+        <v>1.013827034645471</v>
       </c>
       <c r="U15">
-        <v>1.378684198</v>
+        <v>1.011810901203632</v>
       </c>
       <c r="V15">
-        <v>1.1138187828</v>
+        <v>1.004262108671301</v>
       </c>
       <c r="W15">
-        <v>1.231252334</v>
+        <v>1.006957932181207</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,40 +1600,40 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.21885897</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="D16">
         <v>1.9813918</v>
       </c>
       <c r="E16">
-        <v>0.66920919</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="F16">
-        <v>1.1337668</v>
+        <v>1.133766800000002</v>
       </c>
       <c r="G16">
-        <v>0.21885897</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="H16">
-        <v>0.8289786500000002</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="I16">
-        <v>0.45733154</v>
+        <v>0.4573315399999993</v>
       </c>
       <c r="J16">
-        <v>0.66920919</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="K16">
-        <v>0.66920919</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="L16">
-        <v>1.50387</v>
+        <v>1.503870000000002</v>
       </c>
       <c r="M16">
-        <v>0.70096497</v>
+        <v>0.7009649700000007</v>
       </c>
       <c r="N16">
-        <v>0.66920919</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="O16">
         <v>1.9813918</v>
@@ -1639,22 +1645,22 @@
         <v>1.341178385</v>
       </c>
       <c r="R16">
-        <v>0.9564866533333333</v>
+        <v>0.9564866533333328</v>
       </c>
       <c r="S16">
-        <v>0.9670719133333332</v>
+        <v>0.9670719133333335</v>
       </c>
       <c r="T16">
-        <v>0.9564866533333333</v>
+        <v>0.9564866533333328</v>
       </c>
       <c r="U16">
-        <v>0.8926062324999999</v>
+        <v>0.8926062324999998</v>
       </c>
       <c r="V16">
-        <v>0.847926824</v>
+        <v>0.8479268239999996</v>
       </c>
       <c r="W16">
-        <v>0.9367964900000001</v>
+        <v>0.9367964900000005</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.6705054</v>
+        <v>3.9393531</v>
       </c>
       <c r="D17">
-        <v>0.49191705</v>
+        <v>0.21885897</v>
       </c>
       <c r="E17">
-        <v>0.16635643</v>
+        <v>0.054357122</v>
       </c>
       <c r="F17">
-        <v>1.2446004</v>
+        <v>1.1568707</v>
       </c>
       <c r="G17">
-        <v>2.6705054</v>
+        <v>3.9393531</v>
       </c>
       <c r="H17">
-        <v>0.63251363</v>
+        <v>0.44908907</v>
       </c>
       <c r="I17">
-        <v>2.0405084</v>
+        <v>2.5594139</v>
       </c>
       <c r="J17">
-        <v>0.16635643</v>
+        <v>0.054357122</v>
       </c>
       <c r="K17">
-        <v>0.16635643</v>
+        <v>0.054357122</v>
       </c>
       <c r="L17">
-        <v>0.3943864699999999</v>
+        <v>0.16990821</v>
       </c>
       <c r="M17">
-        <v>1.3099052</v>
+        <v>1.3021676</v>
       </c>
       <c r="N17">
-        <v>0.16635643</v>
+        <v>0.054357122</v>
       </c>
       <c r="O17">
-        <v>0.49191705</v>
+        <v>0.21885897</v>
       </c>
       <c r="P17">
-        <v>1.581211225</v>
+        <v>2.079106035</v>
       </c>
       <c r="Q17">
-        <v>0.9009111249999999</v>
+        <v>0.760513285</v>
       </c>
       <c r="R17">
-        <v>1.10959296</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="S17">
-        <v>1.490775883333334</v>
+        <v>1.820126556666667</v>
       </c>
       <c r="T17">
-        <v>1.10959296</v>
+        <v>1.404189730666667</v>
       </c>
       <c r="U17">
-        <v>1.15967102</v>
+        <v>1.378684198</v>
       </c>
       <c r="V17">
-        <v>0.9610081020000001</v>
+        <v>1.1138187828</v>
       </c>
       <c r="W17">
-        <v>1.1188366225</v>
+        <v>1.231252334</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.026363887013699</v>
+        <v>0.21885897</v>
       </c>
       <c r="D18">
-        <v>0.8575404645205478</v>
+        <v>1.9813918</v>
       </c>
       <c r="E18">
-        <v>1.382853073068493</v>
+        <v>0.66920919</v>
       </c>
       <c r="F18">
-        <v>0.8551725619178085</v>
+        <v>1.1337668</v>
       </c>
       <c r="G18">
-        <v>1.026363887013699</v>
+        <v>0.21885897</v>
       </c>
       <c r="H18">
-        <v>1.090327362602739</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="I18">
-        <v>0.9423578736986303</v>
+        <v>0.45733154</v>
       </c>
       <c r="J18">
-        <v>1.382853073068493</v>
+        <v>0.66920919</v>
       </c>
       <c r="K18">
-        <v>1.382853073068493</v>
+        <v>0.66920919</v>
       </c>
       <c r="L18">
-        <v>1.015634671095891</v>
+        <v>1.50387</v>
       </c>
       <c r="M18">
-        <v>0.9447323427397262</v>
+        <v>0.70096497</v>
       </c>
       <c r="N18">
-        <v>1.382853073068493</v>
+        <v>0.66920919</v>
       </c>
       <c r="O18">
-        <v>0.8575404645205478</v>
+        <v>1.9813918</v>
       </c>
       <c r="P18">
-        <v>0.9419521757671232</v>
+        <v>1.100125385</v>
       </c>
       <c r="Q18">
-        <v>0.901136403630137</v>
+        <v>1.341178385</v>
       </c>
       <c r="R18">
-        <v>1.088919141534247</v>
+        <v>0.9564866533333333</v>
       </c>
       <c r="S18">
-        <v>0.9428788980913242</v>
+        <v>0.9670719133333332</v>
       </c>
       <c r="T18">
-        <v>1.088919141534247</v>
+        <v>0.9564866533333333</v>
       </c>
       <c r="U18">
-        <v>1.052872441835617</v>
+        <v>0.8926062324999999</v>
       </c>
       <c r="V18">
-        <v>1.118868568082192</v>
+        <v>0.847926824</v>
       </c>
       <c r="W18">
-        <v>1.014372779582192</v>
+        <v>0.9367964900000001</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.772162625263158</v>
+        <v>2.6705054</v>
       </c>
       <c r="D19">
-        <v>1.038299715263158</v>
+        <v>0.49191705</v>
       </c>
       <c r="E19">
-        <v>0.3509733176842105</v>
+        <v>0.16635643</v>
       </c>
       <c r="F19">
-        <v>1.206249889473684</v>
+        <v>1.2446004</v>
       </c>
       <c r="G19">
-        <v>1.772162625263158</v>
+        <v>2.6705054</v>
       </c>
       <c r="H19">
-        <v>0.7061252994736843</v>
+        <v>0.63251363</v>
       </c>
       <c r="I19">
-        <v>1.454438172631579</v>
+        <v>2.0405084</v>
       </c>
       <c r="J19">
-        <v>0.3509733176842105</v>
+        <v>0.16635643</v>
       </c>
       <c r="K19">
-        <v>0.3509733176842105</v>
+        <v>0.16635643</v>
       </c>
       <c r="L19">
-        <v>0.8012957152631578</v>
+        <v>0.3943864699999999</v>
       </c>
       <c r="M19">
-        <v>1.083480193684211</v>
+        <v>1.3099052</v>
       </c>
       <c r="N19">
-        <v>0.3509733176842105</v>
+        <v>0.16635643</v>
       </c>
       <c r="O19">
-        <v>1.038299715263158</v>
+        <v>0.49191705</v>
       </c>
       <c r="P19">
-        <v>1.405231170263158</v>
+        <v>1.581211225</v>
       </c>
       <c r="Q19">
-        <v>1.060889954473684</v>
+        <v>0.9009111249999999</v>
       </c>
       <c r="R19">
-        <v>1.053811886070176</v>
+        <v>1.10959296</v>
       </c>
       <c r="S19">
-        <v>1.297980844736842</v>
+        <v>1.490775883333334</v>
       </c>
       <c r="T19">
-        <v>1.053811886070176</v>
+        <v>1.10959296</v>
       </c>
       <c r="U19">
-        <v>1.061228962973684</v>
+        <v>1.15967102</v>
       </c>
       <c r="V19">
-        <v>0.9191778339157896</v>
+        <v>0.9610081020000001</v>
       </c>
       <c r="W19">
-        <v>1.051628116092105</v>
+        <v>1.1188366225</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.043442563052632</v>
+        <v>1.026363887013699</v>
       </c>
       <c r="D20">
-        <v>0.8787117957894734</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="E20">
-        <v>1.346592761</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="F20">
-        <v>0.8664737015789473</v>
+        <v>0.8551725619178085</v>
       </c>
       <c r="G20">
-        <v>1.043442563052632</v>
+        <v>1.026363887013699</v>
       </c>
       <c r="H20">
-        <v>1.075012418947368</v>
+        <v>1.090327362602739</v>
       </c>
       <c r="I20">
-        <v>0.9508710757894736</v>
+        <v>0.9423578736986303</v>
       </c>
       <c r="J20">
-        <v>1.346592761</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="K20">
-        <v>1.346592761</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="L20">
-        <v>1.017354989473684</v>
+        <v>1.015634671095891</v>
       </c>
       <c r="M20">
-        <v>0.9430205073684212</v>
+        <v>0.9447323427397262</v>
       </c>
       <c r="N20">
-        <v>1.346592761</v>
+        <v>1.382853073068493</v>
       </c>
       <c r="O20">
-        <v>0.8787117957894734</v>
+        <v>0.8575404645205478</v>
       </c>
       <c r="P20">
-        <v>0.9610771794210525</v>
+        <v>0.9419521757671232</v>
       </c>
       <c r="Q20">
-        <v>0.9108661515789473</v>
+        <v>0.901136403630137</v>
       </c>
       <c r="R20">
-        <v>1.089582373280702</v>
+        <v>1.088919141534247</v>
       </c>
       <c r="S20">
-        <v>0.9550582887368421</v>
+        <v>0.9428788980913242</v>
       </c>
       <c r="T20">
-        <v>1.089582373280702</v>
+        <v>1.088919141534247</v>
       </c>
       <c r="U20">
-        <v>1.052941906802632</v>
+        <v>1.052872441835617</v>
       </c>
       <c r="V20">
-        <v>1.111672077642105</v>
+        <v>1.118868568082192</v>
       </c>
       <c r="W20">
-        <v>1.015184976625</v>
+        <v>1.014372779582192</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>2.660839704405878</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="D21">
-        <v>0.4955235286572381</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="E21">
-        <v>0.2116844377548642</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="F21">
-        <v>1.211930864539183</v>
+        <v>1.206249889473684</v>
       </c>
       <c r="G21">
-        <v>2.660839704405878</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="H21">
-        <v>0.6548451648534876</v>
+        <v>0.7061252994736843</v>
       </c>
       <c r="I21">
-        <v>2.011207754433008</v>
+        <v>1.454438172631579</v>
       </c>
       <c r="J21">
-        <v>0.2116844377548642</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="K21">
-        <v>0.2116844377548642</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="L21">
-        <v>0.4161587537975789</v>
+        <v>0.8012957152631578</v>
       </c>
       <c r="M21">
-        <v>1.295770565751204</v>
+        <v>1.083480193684211</v>
       </c>
       <c r="N21">
-        <v>0.2116844377548642</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="O21">
-        <v>0.4955235286572381</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="P21">
-        <v>1.578181616531558</v>
+        <v>1.405231170263158</v>
       </c>
       <c r="Q21">
-        <v>0.8956470472042208</v>
+        <v>1.060889954473684</v>
       </c>
       <c r="R21">
-        <v>1.122682556939327</v>
+        <v>1.053811886070176</v>
       </c>
       <c r="S21">
-        <v>1.484044599604773</v>
+        <v>1.297980844736842</v>
       </c>
       <c r="T21">
-        <v>1.122682556939327</v>
+        <v>1.053811886070176</v>
       </c>
       <c r="U21">
-        <v>1.165954559142296</v>
+        <v>1.061228962973684</v>
       </c>
       <c r="V21">
-        <v>0.9751005348648096</v>
+        <v>0.9191778339157896</v>
       </c>
       <c r="W21">
-        <v>1.119745096774055</v>
+        <v>1.051628116092105</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.268221409307049</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="D22">
-        <v>0.9281320838650573</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="E22">
-        <v>0.6337144484550302</v>
+        <v>1.346592761</v>
       </c>
       <c r="F22">
-        <v>1.12967782631739</v>
+        <v>0.8664737015789473</v>
       </c>
       <c r="G22">
-        <v>1.268221409307049</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="H22">
-        <v>0.9088917048708907</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="I22">
-        <v>1.240079932296729</v>
+        <v>0.9508710757894736</v>
       </c>
       <c r="J22">
-        <v>0.6337144484550302</v>
+        <v>1.346592761</v>
       </c>
       <c r="K22">
-        <v>0.6337144484550302</v>
+        <v>1.346592761</v>
       </c>
       <c r="L22">
-        <v>0.8472022201645837</v>
+        <v>1.017354989473684</v>
       </c>
       <c r="M22">
-        <v>1.125696974183839</v>
+        <v>0.9430205073684212</v>
       </c>
       <c r="N22">
-        <v>0.6337144484550302</v>
+        <v>1.346592761</v>
       </c>
       <c r="O22">
-        <v>0.9281320838650573</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="P22">
-        <v>1.098176746586053</v>
+        <v>0.9610771794210525</v>
       </c>
       <c r="Q22">
-        <v>1.026914529024448</v>
+        <v>0.9108661515789473</v>
       </c>
       <c r="R22">
-        <v>0.9433559805423789</v>
+        <v>1.089582373280702</v>
       </c>
       <c r="S22">
-        <v>1.107350155785315</v>
+        <v>0.9550582887368421</v>
       </c>
       <c r="T22">
-        <v>0.9433559805423789</v>
+        <v>1.089582373280702</v>
       </c>
       <c r="U22">
-        <v>0.9889412289527439</v>
+        <v>1.052941906802632</v>
       </c>
       <c r="V22">
-        <v>0.9178958728532012</v>
+        <v>1.111672077642105</v>
       </c>
       <c r="W22">
-        <v>1.010202074932571</v>
+        <v>1.015184976625</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9318562016855172</v>
+        <v>2.660839704405878</v>
       </c>
       <c r="D23">
-        <v>0.9422085480144056</v>
+        <v>0.4955235286572381</v>
       </c>
       <c r="E23">
-        <v>1.012390764726486</v>
+        <v>0.2116844377548642</v>
       </c>
       <c r="F23">
-        <v>1.000290037004209</v>
+        <v>1.211930864539183</v>
       </c>
       <c r="G23">
-        <v>0.9318562016855172</v>
+        <v>2.660839704405878</v>
       </c>
       <c r="H23">
-        <v>1.039747067715987</v>
+        <v>0.6548451648534876</v>
       </c>
       <c r="I23">
-        <v>0.9961587042885472</v>
+        <v>2.011207754433008</v>
       </c>
       <c r="J23">
-        <v>1.012390764726486</v>
+        <v>0.2116844377548642</v>
       </c>
       <c r="K23">
-        <v>1.012390764726486</v>
+        <v>0.2116844377548642</v>
       </c>
       <c r="L23">
-        <v>0.9766271425499056</v>
+        <v>0.4161587537975789</v>
       </c>
       <c r="M23">
-        <v>1.038317969746038</v>
+        <v>1.295770565751204</v>
       </c>
       <c r="N23">
-        <v>1.012390764726486</v>
+        <v>0.2116844377548642</v>
       </c>
       <c r="O23">
-        <v>0.9422085480144056</v>
+        <v>0.4955235286572381</v>
       </c>
       <c r="P23">
-        <v>0.9370323748499614</v>
+        <v>1.578181616531558</v>
       </c>
       <c r="Q23">
-        <v>0.9902632588802217</v>
+        <v>0.8956470472042208</v>
       </c>
       <c r="R23">
-        <v>0.9621518381421365</v>
+        <v>1.122682556939327</v>
       </c>
       <c r="S23">
-        <v>0.9707942398153202</v>
+        <v>1.484044599604773</v>
       </c>
       <c r="T23">
-        <v>0.9621518381421365</v>
+        <v>1.122682556939327</v>
       </c>
       <c r="U23">
-        <v>0.9811933710431118</v>
+        <v>1.165954559142296</v>
       </c>
       <c r="V23">
-        <v>0.9874328497797867</v>
+        <v>0.9751005348648096</v>
       </c>
       <c r="W23">
-        <v>0.992199554466387</v>
+        <v>1.119745096774055</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.067964252920152</v>
+        <v>1.268221409307049</v>
       </c>
       <c r="D24">
-        <v>1.059548244205389</v>
+        <v>0.9281320838650573</v>
       </c>
       <c r="E24">
-        <v>1.02319818206806</v>
+        <v>0.6337144484550302</v>
       </c>
       <c r="F24">
-        <v>0.9904967017439729</v>
+        <v>1.12967782631739</v>
       </c>
       <c r="G24">
-        <v>1.067964252920152</v>
+        <v>1.268221409307049</v>
       </c>
       <c r="H24">
-        <v>0.9601667937851358</v>
+        <v>0.9088917048708907</v>
       </c>
       <c r="I24">
-        <v>0.9938349866230983</v>
+        <v>1.240079932296729</v>
       </c>
       <c r="J24">
-        <v>1.02319818206806</v>
+        <v>0.6337144484550302</v>
       </c>
       <c r="K24">
-        <v>1.02319818206806</v>
+        <v>0.6337144484550302</v>
       </c>
       <c r="L24">
-        <v>1.030847741543492</v>
+        <v>0.8472022201645837</v>
       </c>
       <c r="M24">
-        <v>0.9480581733904366</v>
+        <v>1.125696974183839</v>
       </c>
       <c r="N24">
-        <v>1.02319818206806</v>
+        <v>0.6337144484550302</v>
       </c>
       <c r="O24">
-        <v>1.059548244205389</v>
+        <v>0.9281320838650573</v>
       </c>
       <c r="P24">
-        <v>1.063756248562771</v>
+        <v>1.098176746586053</v>
       </c>
       <c r="Q24">
-        <v>1.003803208797913</v>
+        <v>1.026914529024448</v>
       </c>
       <c r="R24">
-        <v>1.050236893064534</v>
+        <v>0.9433559805423789</v>
       </c>
       <c r="S24">
-        <v>1.025190223505326</v>
+        <v>1.107350155785315</v>
       </c>
       <c r="T24">
-        <v>1.050236893064534</v>
+        <v>0.9433559805423789</v>
       </c>
       <c r="U24">
-        <v>1.024692213146009</v>
+        <v>0.9889412289527439</v>
       </c>
       <c r="V24">
-        <v>1.024393406930419</v>
+        <v>0.9178958728532012</v>
       </c>
       <c r="W24">
-        <v>1.009264384534967</v>
+        <v>1.010202074932571</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1398369913072594</v>
+        <v>0.9318562016855172</v>
       </c>
       <c r="D25">
-        <v>0.8731923049019394</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="E25">
-        <v>2.273757410017424</v>
+        <v>1.012390764726486</v>
       </c>
       <c r="F25">
-        <v>0.5794175360033085</v>
+        <v>1.000290037004209</v>
       </c>
       <c r="G25">
-        <v>0.1398369913072594</v>
+        <v>0.9318562016855172</v>
       </c>
       <c r="H25">
-        <v>1.411107354708371</v>
+        <v>1.039747067715987</v>
       </c>
       <c r="I25">
-        <v>0.3537836678590167</v>
+        <v>0.9961587042885472</v>
       </c>
       <c r="J25">
-        <v>2.273757410017424</v>
+        <v>1.012390764726486</v>
       </c>
       <c r="K25">
-        <v>2.273757410017424</v>
+        <v>1.012390764726486</v>
       </c>
       <c r="L25">
-        <v>1.30429562634978</v>
+        <v>0.9766271425499056</v>
       </c>
       <c r="M25">
-        <v>0.761409240346148</v>
+        <v>1.038317969746038</v>
       </c>
       <c r="N25">
-        <v>2.273757410017424</v>
+        <v>1.012390764726486</v>
       </c>
       <c r="O25">
-        <v>0.8731923049019394</v>
+        <v>0.9422085480144056</v>
       </c>
       <c r="P25">
-        <v>0.5065146481045995</v>
+        <v>0.9370323748499614</v>
       </c>
       <c r="Q25">
-        <v>0.8173007726240438</v>
+        <v>0.9902632588802217</v>
       </c>
       <c r="R25">
-        <v>1.095595568742208</v>
+        <v>0.9621518381421365</v>
       </c>
       <c r="S25">
-        <v>0.5914795121851156</v>
+        <v>0.9707942398153202</v>
       </c>
       <c r="T25">
-        <v>1.095595568742207</v>
+        <v>0.9621518381421365</v>
       </c>
       <c r="U25">
-        <v>1.012048986643193</v>
+        <v>0.9811933710431118</v>
       </c>
       <c r="V25">
-        <v>1.264390671318039</v>
+        <v>0.9874328497797867</v>
       </c>
       <c r="W25">
-        <v>0.9621000164366558</v>
+        <v>0.992199554466387</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.5397908180613789</v>
+        <v>1.067964252920152</v>
       </c>
       <c r="D26">
-        <v>1.236171008120947</v>
+        <v>1.059548244205389</v>
       </c>
       <c r="E26">
-        <v>0.9754516980295286</v>
+        <v>1.02319818206806</v>
       </c>
       <c r="F26">
-        <v>1.012611263321818</v>
+        <v>0.9904967017439729</v>
       </c>
       <c r="G26">
-        <v>0.5397908180613789</v>
+        <v>1.067964252920152</v>
       </c>
       <c r="H26">
-        <v>1.04786352455284</v>
+        <v>0.9601667937851358</v>
       </c>
       <c r="I26">
-        <v>0.7503685037402332</v>
+        <v>0.9938349866230983</v>
       </c>
       <c r="J26">
-        <v>0.9754516980295286</v>
+        <v>1.02319818206806</v>
       </c>
       <c r="K26">
-        <v>0.9754516980295286</v>
+        <v>1.02319818206806</v>
       </c>
       <c r="L26">
-        <v>1.164745750124684</v>
+        <v>1.030847741543492</v>
       </c>
       <c r="M26">
-        <v>0.9491766411145567</v>
+        <v>0.9480581733904366</v>
       </c>
       <c r="N26">
-        <v>0.9754516980295286</v>
+        <v>1.02319818206806</v>
       </c>
       <c r="O26">
-        <v>1.236171008120947</v>
+        <v>1.059548244205389</v>
       </c>
       <c r="P26">
-        <v>0.8879809130911628</v>
+        <v>1.063756248562771</v>
       </c>
       <c r="Q26">
-        <v>1.092673824617752</v>
+        <v>1.003803208797913</v>
       </c>
       <c r="R26">
-        <v>0.9171378414039514</v>
+        <v>1.050236893064534</v>
       </c>
       <c r="S26">
-        <v>0.9083794890989608</v>
+        <v>1.025190223505326</v>
       </c>
       <c r="T26">
-        <v>0.9171378414039514</v>
+        <v>1.050236893064534</v>
       </c>
       <c r="U26">
-        <v>0.9251475413316027</v>
+        <v>1.024692213146009</v>
       </c>
       <c r="V26">
-        <v>0.9352083726711878</v>
+        <v>1.024393406930419</v>
       </c>
       <c r="W26">
-        <v>0.9595224008832482</v>
+        <v>1.009264384534967</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9594025325632199</v>
+        <v>0.1398369913072594</v>
       </c>
       <c r="D27">
-        <v>0.9844722257665111</v>
+        <v>0.8731923049019394</v>
       </c>
       <c r="E27">
-        <v>1.035592815127624</v>
+        <v>2.273757410017424</v>
       </c>
       <c r="F27">
-        <v>0.9888649680342922</v>
+        <v>0.5794175360033085</v>
       </c>
       <c r="G27">
-        <v>0.9594025325632199</v>
+        <v>0.1398369913072594</v>
       </c>
       <c r="H27">
-        <v>1.019425321777766</v>
+        <v>1.411107354708371</v>
       </c>
       <c r="I27">
-        <v>0.983514257247986</v>
+        <v>0.3537836678590167</v>
       </c>
       <c r="J27">
-        <v>1.035592815127624</v>
+        <v>2.273757410017424</v>
       </c>
       <c r="K27">
-        <v>1.035592815127624</v>
+        <v>2.273757410017424</v>
       </c>
       <c r="L27">
-        <v>1.00255921001764</v>
+        <v>1.30429562634978</v>
       </c>
       <c r="M27">
-        <v>1.003993431252831</v>
+        <v>0.761409240346148</v>
       </c>
       <c r="N27">
-        <v>1.035592815127624</v>
+        <v>2.273757410017424</v>
       </c>
       <c r="O27">
-        <v>0.9844722257665111</v>
+        <v>0.8731923049019394</v>
       </c>
       <c r="P27">
-        <v>0.9719373791648656</v>
+        <v>0.5065146481045995</v>
       </c>
       <c r="Q27">
-        <v>0.9942328285096711</v>
+        <v>0.8173007726240438</v>
       </c>
       <c r="R27">
-        <v>0.9931558578191185</v>
+        <v>1.095595568742208</v>
       </c>
       <c r="S27">
-        <v>0.9826227298608541</v>
+        <v>0.5914795121851156</v>
       </c>
       <c r="T27">
-        <v>0.9931558578191185</v>
+        <v>1.095595568742207</v>
       </c>
       <c r="U27">
-        <v>0.9958652511775467</v>
+        <v>1.012048986643193</v>
       </c>
       <c r="V27">
-        <v>1.003810763967562</v>
+        <v>1.264390671318039</v>
       </c>
       <c r="W27">
-        <v>0.997228095223484</v>
+        <v>0.9621000164366558</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.076029646955971</v>
+        <v>0.5397908180613789</v>
       </c>
       <c r="D28">
-        <v>0.9132169137916855</v>
+        <v>1.236171008120947</v>
       </c>
       <c r="E28">
-        <v>1.056206072790698</v>
+        <v>0.9754516980295286</v>
       </c>
       <c r="F28">
-        <v>0.971715513307671</v>
+        <v>1.012611263321818</v>
       </c>
       <c r="G28">
-        <v>1.076029646955971</v>
+        <v>0.5397908180613789</v>
       </c>
       <c r="H28">
-        <v>1.020896776568086</v>
+        <v>1.04786352455284</v>
       </c>
       <c r="I28">
-        <v>1.042544843415594</v>
+        <v>0.7503685037402332</v>
       </c>
       <c r="J28">
-        <v>1.056206072790698</v>
+        <v>0.9754516980295286</v>
       </c>
       <c r="K28">
-        <v>1.056206072790698</v>
+        <v>0.9754516980295286</v>
       </c>
       <c r="L28">
-        <v>0.9622643181684174</v>
+        <v>1.164745750124684</v>
       </c>
       <c r="M28">
-        <v>1.019847866400511</v>
+        <v>0.9491766411145567</v>
       </c>
       <c r="N28">
-        <v>1.056206072790698</v>
+        <v>0.9754516980295286</v>
       </c>
       <c r="O28">
-        <v>0.9132169137916855</v>
+        <v>1.236171008120947</v>
       </c>
       <c r="P28">
-        <v>0.9946232803738281</v>
+        <v>0.8879809130911628</v>
       </c>
       <c r="Q28">
-        <v>0.966532390096098</v>
+        <v>1.092673824617752</v>
       </c>
       <c r="R28">
-        <v>1.015150877846118</v>
+        <v>0.9171378414039514</v>
       </c>
       <c r="S28">
-        <v>1.003031475716056</v>
+        <v>0.9083794890989608</v>
       </c>
       <c r="T28">
-        <v>1.015150877846118</v>
+        <v>0.9171378414039514</v>
       </c>
       <c r="U28">
-        <v>1.016325124984716</v>
+        <v>0.9251475413316027</v>
       </c>
       <c r="V28">
-        <v>1.024301314545912</v>
+        <v>0.9352083726711878</v>
       </c>
       <c r="W28">
-        <v>1.007840243924829</v>
+        <v>0.9595224008832482</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="D29">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="E29">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="F29">
+        <v>0.9888649680342922</v>
+      </c>
+      <c r="G29">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="H29">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="I29">
+        <v>0.983514257247986</v>
+      </c>
+      <c r="J29">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="K29">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="L29">
+        <v>1.00255921001764</v>
+      </c>
+      <c r="M29">
+        <v>1.003993431252831</v>
+      </c>
+      <c r="N29">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="O29">
+        <v>0.9844722257665111</v>
+      </c>
+      <c r="P29">
+        <v>0.9719373791648656</v>
+      </c>
+      <c r="Q29">
+        <v>0.9942328285096711</v>
+      </c>
+      <c r="R29">
+        <v>0.9931558578191185</v>
+      </c>
+      <c r="S29">
+        <v>0.9826227298608541</v>
+      </c>
+      <c r="T29">
+        <v>0.9931558578191185</v>
+      </c>
+      <c r="U29">
+        <v>0.9958652511775467</v>
+      </c>
+      <c r="V29">
+        <v>1.003810763967562</v>
+      </c>
+      <c r="W29">
+        <v>0.997228095223484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.076029646955971</v>
+      </c>
+      <c r="D30">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="E30">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="F30">
+        <v>0.971715513307671</v>
+      </c>
+      <c r="G30">
+        <v>1.076029646955971</v>
+      </c>
+      <c r="H30">
+        <v>1.020896776568086</v>
+      </c>
+      <c r="I30">
+        <v>1.042544843415594</v>
+      </c>
+      <c r="J30">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="K30">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="L30">
+        <v>0.9622643181684174</v>
+      </c>
+      <c r="M30">
+        <v>1.019847866400511</v>
+      </c>
+      <c r="N30">
+        <v>1.056206072790698</v>
+      </c>
+      <c r="O30">
+        <v>0.9132169137916855</v>
+      </c>
+      <c r="P30">
+        <v>0.9946232803738281</v>
+      </c>
+      <c r="Q30">
+        <v>0.966532390096098</v>
+      </c>
+      <c r="R30">
+        <v>1.015150877846118</v>
+      </c>
+      <c r="S30">
+        <v>1.003031475716056</v>
+      </c>
+      <c r="T30">
+        <v>1.015150877846118</v>
+      </c>
+      <c r="U30">
+        <v>1.016325124984716</v>
+      </c>
+      <c r="V30">
+        <v>1.024301314545912</v>
+      </c>
+      <c r="W30">
+        <v>1.007840243924829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.309097447581508</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.8727369923437135</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.085437734799395</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9549336337198835</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.309097447581508</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9726590330984959</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.131293361175294</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.085437734799395</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.085437734799395</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9267225651262722</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9966096048957813</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.085437734799395</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.8727369923437135</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.090917219962611</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9346732986197475</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.089090724908206</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.059481348273668</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.089090724908206</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.0659704449051</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.069863902883959</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.031186296592543</v>
       </c>
     </row>
